--- a/workshop/assets/NightwoodData.xlsx
+++ b/workshop/assets/NightwoodData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="NightwoodData.txt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" firstRow="2" sourceFile="SSD:Users:alexc:Desktop:NightwoodData.txt" tab="0" comma="1" delimiter=":">
+    <textPr fileType="mac" firstRow="2" sourceFile="SSD:Users:alexc:Desktop:NightwoodData.txt" tab="0" comma="1" delimiter=":">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="178">
   <si>
     <t>place</t>
   </si>
@@ -592,13 +592,16 @@
   </si>
   <si>
     <t>RADIUS</t>
+  </si>
+  <si>
+    <t>LOG x 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -629,8 +632,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,6 +650,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -667,7 +682,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -722,12 +737,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="54" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -754,6 +775,8 @@
     <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -781,6 +804,9 @@
     <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Neutral" xfId="54" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1120,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG124"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="AG35" sqref="AG35"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D100" workbookViewId="0">
+      <selection activeCell="AE122" sqref="AE122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1162,24 +1188,28 @@
         <v>8</v>
       </c>
       <c r="Z1">
-        <f>SUM(B1:P1)</f>
+        <f t="shared" ref="Z1:Z32" si="0">SUM(B1:P1)</f>
         <v>229</v>
       </c>
       <c r="AA1">
         <f>Z1/Z124</f>
         <v>4.5630255449727016E-3</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="2">
         <f>AA1*10000</f>
         <v>45.630255449727017</v>
       </c>
-      <c r="AC1" s="1">
-        <f>LOG(AB1,10)*100</f>
+      <c r="AC1" s="2">
+        <f t="shared" ref="AC1:AC13" si="1">LOG(AB1,10)*100</f>
         <v>165.92529000699719</v>
       </c>
       <c r="AD1">
-        <f>ROW(A1)</f>
+        <f t="shared" ref="AD1:AD32" si="2">ROW(A1)</f>
         <v>1</v>
+      </c>
+      <c r="AE1" s="1">
+        <f>AC1*5</f>
+        <v>829.62645003498596</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -1190,24 +1220,28 @@
         <v>49</v>
       </c>
       <c r="Z2">
-        <f>SUM(B2:P2)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="AA2">
         <f>Z2/Z124</f>
         <v>9.7636791136970465E-4</v>
       </c>
-      <c r="AB2" s="1">
-        <f t="shared" ref="AB2:AB64" si="0">AA2*10000</f>
+      <c r="AB2" s="2">
+        <f t="shared" ref="AB2:AB64" si="3">AA2*10000</f>
         <v>9.7636791136970462</v>
       </c>
-      <c r="AC2" s="1">
-        <f>LOG(AB2,10)*100</f>
+      <c r="AC2" s="2">
+        <f t="shared" si="1"/>
         <v>98.961349775859759</v>
       </c>
       <c r="AD2">
-        <f>ROW(A2)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
+      </c>
+      <c r="AE2" s="1">
+        <f t="shared" ref="AE2:AE65" si="4">AC2*5</f>
+        <v>494.80674887929877</v>
       </c>
       <c r="AG2">
         <v>10</v>
@@ -1221,24 +1255,28 @@
         <v>6</v>
       </c>
       <c r="Z3">
-        <f>SUM(B3:P3)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="AA3">
         <f>Z3/Z124</f>
         <v>1.1955525445343323E-4</v>
       </c>
-      <c r="AB3" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB3" s="2">
+        <f t="shared" si="3"/>
         <v>1.1955525445343322</v>
       </c>
-      <c r="AC3" s="1">
-        <f>LOG(AB3,10)*100</f>
+      <c r="AC3" s="2">
+        <f t="shared" si="1"/>
         <v>7.7568668113727659</v>
       </c>
       <c r="AD3">
-        <f>ROW(A3)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
+      </c>
+      <c r="AE3" s="1">
+        <f t="shared" si="4"/>
+        <v>38.784334056863827</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -1255,24 +1293,28 @@
         <v>28</v>
       </c>
       <c r="Z4">
-        <f>SUM(B4:P4)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="AA4">
         <f>Z4/Z124</f>
         <v>8.3688678117403259E-4</v>
       </c>
-      <c r="AB4" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB4" s="2">
+        <f t="shared" si="3"/>
         <v>8.3688678117403263</v>
       </c>
-      <c r="AC4" s="1">
-        <f>LOG(AB4,10)*100</f>
+      <c r="AC4" s="2">
+        <f t="shared" si="1"/>
         <v>92.266670812798452</v>
       </c>
       <c r="AD4">
-        <f>ROW(A4)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
+      </c>
+      <c r="AE4" s="1">
+        <f t="shared" si="4"/>
+        <v>461.33335406399226</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -1283,24 +1325,28 @@
         <v>52</v>
       </c>
       <c r="Z5">
-        <f>SUM(B5:P5)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="AA5">
         <f>Z5/Z124</f>
         <v>1.0361455385964214E-3</v>
       </c>
-      <c r="AB5" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB5" s="2">
+        <f t="shared" si="3"/>
         <v>10.361455385964215</v>
       </c>
-      <c r="AC5" s="1">
-        <f>LOG(AB5,10)*100</f>
+      <c r="AC5" s="2">
+        <f t="shared" si="1"/>
         <v>101.54207613648833</v>
       </c>
       <c r="AD5">
-        <f>ROW(A5)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
+      </c>
+      <c r="AE5" s="1">
+        <f t="shared" si="4"/>
+        <v>507.71038068244167</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -1317,24 +1363,28 @@
         <v>4</v>
       </c>
       <c r="Z6">
-        <f>SUM(B6:P6)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AA6">
         <f>Z6/Z124</f>
         <v>3.586657633602997E-4</v>
       </c>
-      <c r="AB6" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB6" s="2">
+        <f t="shared" si="3"/>
         <v>3.5866576336029969</v>
       </c>
-      <c r="AC6" s="1">
-        <f>LOG(AB6,10)*100</f>
+      <c r="AC6" s="2">
+        <f t="shared" si="1"/>
         <v>55.468992283339006</v>
       </c>
       <c r="AD6">
-        <f>ROW(A6)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
+      </c>
+      <c r="AE6" s="1">
+        <f t="shared" si="4"/>
+        <v>277.34496141669501</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1378,26 +1428,31 @@
         <v>12</v>
       </c>
       <c r="Z7">
-        <f>SUM(B7:P7)</f>
+        <f t="shared" si="0"/>
         <v>825</v>
       </c>
       <c r="AA7">
         <f>Z7/50186</f>
         <v>1.6438847487347068E-2</v>
       </c>
-      <c r="AB7" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB7" s="2">
+        <f t="shared" si="3"/>
         <v>164.38847487347067</v>
       </c>
-      <c r="AC7" s="1">
-        <f>LOG(AB7,10)*100</f>
+      <c r="AC7" s="2">
+        <f t="shared" si="1"/>
         <v>221.58713662800091</v>
       </c>
       <c r="AD7">
-        <f>ROW(A7)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AG7">
+      <c r="AE7" s="1">
+        <f t="shared" si="4"/>
+        <v>1107.9356831400046</v>
+      </c>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1">
         <v>300</v>
       </c>
     </row>
@@ -1409,24 +1464,28 @@
         <v>636</v>
       </c>
       <c r="Z8">
-        <f>SUM(B8:P8)</f>
+        <f t="shared" si="0"/>
         <v>636</v>
       </c>
       <c r="AA8">
         <f>Z8/50186</f>
         <v>1.2672856972063922E-2</v>
       </c>
-      <c r="AB8" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB8" s="2">
+        <f t="shared" si="3"/>
         <v>126.72856972063921</v>
       </c>
-      <c r="AC8" s="1">
-        <f>LOG(AB8,10)*100</f>
+      <c r="AC8" s="2">
+        <f t="shared" si="1"/>
         <v>210.28745333784977</v>
       </c>
       <c r="AD8">
-        <f>ROW(A8)</f>
+        <f t="shared" si="2"/>
         <v>8</v>
+      </c>
+      <c r="AE8" s="1">
+        <f t="shared" si="4"/>
+        <v>1051.4372666892489</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -1437,24 +1496,28 @@
         <v>1</v>
       </c>
       <c r="Z9">
-        <f>SUM(B9:P9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AA9">
         <f>Z9/50186</f>
         <v>1.9925875742238871E-5</v>
       </c>
-      <c r="AB9" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB9" s="2">
+        <f t="shared" si="3"/>
         <v>0.19925875742238872</v>
       </c>
-      <c r="AC9" s="1">
-        <f>LOG(AB9,10)*100</f>
+      <c r="AC9" s="2">
+        <f t="shared" si="1"/>
         <v>-70.058258226991583</v>
       </c>
       <c r="AD9">
-        <f>ROW(A9)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
+      </c>
+      <c r="AE9" s="1">
+        <f t="shared" si="4"/>
+        <v>-350.29129113495793</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -1507,24 +1570,28 @@
         <v>129</v>
       </c>
       <c r="Z10">
-        <f>SUM(B10:P10)</f>
+        <f t="shared" si="0"/>
         <v>1203</v>
       </c>
       <c r="AA10">
         <f>Z10/50186</f>
         <v>2.3970828517913361E-2</v>
       </c>
-      <c r="AB10" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB10" s="2">
+        <f t="shared" si="3"/>
         <v>239.70828517913361</v>
       </c>
-      <c r="AC10" s="1">
-        <f>LOG(AB10,10)*100</f>
+      <c r="AC10" s="2">
+        <f t="shared" si="1"/>
         <v>237.96830450699281</v>
       </c>
       <c r="AD10">
-        <f>ROW(A10)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
+      </c>
+      <c r="AE10" s="1">
+        <f t="shared" si="4"/>
+        <v>1189.841522534964</v>
       </c>
       <c r="AG10">
         <v>6</v>
@@ -1538,24 +1605,28 @@
         <v>37</v>
       </c>
       <c r="Z11">
-        <f>SUM(B11:P11)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="AA11">
         <f>Z11/50186</f>
         <v>7.3725740246283829E-4</v>
       </c>
-      <c r="AB11" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB11" s="2">
+        <f t="shared" si="3"/>
         <v>7.3725740246283831</v>
       </c>
-      <c r="AC11" s="1">
-        <f>LOG(AB11,10)*100</f>
+      <c r="AC11" s="2">
+        <f t="shared" si="1"/>
         <v>86.761914179707901</v>
       </c>
       <c r="AD11">
-        <f>ROW(A11)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
+      </c>
+      <c r="AE11" s="1">
+        <f t="shared" si="4"/>
+        <v>433.8095708985395</v>
       </c>
       <c r="AG11" t="s">
         <v>175</v>
@@ -1569,24 +1640,28 @@
         <v>39</v>
       </c>
       <c r="Z12">
-        <f>SUM(B12:P12)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="AA12">
-        <f t="shared" ref="AA12:AA74" si="1">Z12/50186</f>
+        <f t="shared" ref="AA12:AA74" si="5">Z12/50186</f>
         <v>7.7710915394731594E-4</v>
       </c>
-      <c r="AB12" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB12" s="2">
+        <f t="shared" si="3"/>
         <v>7.7710915394731597</v>
       </c>
-      <c r="AC12" s="1">
-        <f>LOG(AB12,10)*100</f>
+      <c r="AC12" s="2">
+        <f t="shared" si="1"/>
         <v>89.048202475658314</v>
       </c>
       <c r="AD12">
-        <f>ROW(A12)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
+      </c>
+      <c r="AE12" s="1">
+        <f t="shared" si="4"/>
+        <v>445.24101237829154</v>
       </c>
       <c r="AG12">
         <v>34</v>
@@ -1600,24 +1675,28 @@
         <v>22</v>
       </c>
       <c r="Z13">
-        <f>SUM(B13:P13)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="AA13">
+        <f t="shared" si="5"/>
+        <v>4.3836926632925518E-4</v>
+      </c>
+      <c r="AB13" s="2">
+        <f t="shared" si="3"/>
+        <v>4.3836926632925515</v>
+      </c>
+      <c r="AC13" s="2">
         <f t="shared" si="1"/>
-        <v>4.3836926632925518E-4</v>
-      </c>
-      <c r="AB13" s="1">
-        <f t="shared" si="0"/>
-        <v>4.3836926632925515</v>
-      </c>
-      <c r="AC13" s="1">
-        <f>LOG(AB13,10)*100</f>
         <v>64.184009855229021</v>
       </c>
       <c r="AD13">
-        <f>ROW(A13)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
+      </c>
+      <c r="AE13" s="1">
+        <f t="shared" si="4"/>
+        <v>320.92004927614511</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -1628,23 +1707,27 @@
         <v>13</v>
       </c>
       <c r="Z14">
-        <f>SUM(B14:P14)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.5903638464910535E-4</v>
       </c>
-      <c r="AB14" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB14" s="2">
+        <f t="shared" si="3"/>
         <v>2.5903638464910537</v>
       </c>
-      <c r="AC14" s="1">
+      <c r="AC14" s="2">
         <v>165.92528999999999</v>
       </c>
       <c r="AD14">
-        <f>ROW(A14)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
+      </c>
+      <c r="AE14" s="1">
+        <f t="shared" si="4"/>
+        <v>829.62644999999998</v>
       </c>
       <c r="AG14">
         <v>35</v>
@@ -1661,24 +1744,28 @@
         <v>481</v>
       </c>
       <c r="Z15">
-        <f>SUM(B15:P15)</f>
+        <f t="shared" si="0"/>
         <v>538</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0720121149324512E-2</v>
       </c>
-      <c r="AB15" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB15" s="2">
+        <f t="shared" si="3"/>
         <v>107.20121149324513</v>
       </c>
-      <c r="AC15" s="1">
+      <c r="AC15" s="2">
         <f>LOG(AB15,10)*100</f>
         <v>203.01996933964733</v>
       </c>
       <c r="AD15">
-        <f>ROW(A15)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
+      </c>
+      <c r="AE15" s="1">
+        <f t="shared" si="4"/>
+        <v>1015.0998466982367</v>
       </c>
       <c r="AG15" t="s">
         <v>175</v>
@@ -1695,24 +1782,28 @@
         <v>93</v>
       </c>
       <c r="Z16">
-        <f>SUM(B16:P16)</f>
+        <f t="shared" si="0"/>
         <v>28093</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.55977762722671665</v>
       </c>
-      <c r="AB16" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB16" s="2">
+        <f t="shared" si="3"/>
         <v>5597.7762722671669</v>
       </c>
-      <c r="AC16" s="1">
+      <c r="AC16" s="2">
         <f>LOG(AB16,10)*100</f>
         <v>374.80155369201611</v>
       </c>
       <c r="AD16">
-        <f>ROW(A16)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
+      </c>
+      <c r="AE16" s="1">
+        <f t="shared" si="4"/>
+        <v>1874.0077684600806</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -1723,24 +1814,28 @@
         <v>6</v>
       </c>
       <c r="Z17">
-        <f>SUM(B17:P17)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1955525445343323E-4</v>
       </c>
-      <c r="AB17" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB17" s="2">
+        <f t="shared" si="3"/>
         <v>1.1955525445343322</v>
       </c>
-      <c r="AC17" s="1">
-        <f t="shared" ref="AC17:AC78" si="2">LOG(AB17,10)*100</f>
+      <c r="AC17" s="2">
+        <f t="shared" ref="AC17:AC78" si="6">LOG(AB17,10)*100</f>
         <v>7.7568668113727659</v>
       </c>
       <c r="AD17">
-        <f>ROW(A17)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
+      </c>
+      <c r="AE17" s="1">
+        <f t="shared" si="4"/>
+        <v>38.784334056863827</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -1751,24 +1846,28 @@
         <v>62</v>
       </c>
       <c r="Z18">
-        <f>SUM(B18:P18)</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.23540429601881E-3</v>
       </c>
-      <c r="AB18" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB18" s="2">
+        <f t="shared" si="3"/>
         <v>12.354042960188099</v>
       </c>
-      <c r="AC18" s="1">
+      <c r="AC18" s="2">
+        <f t="shared" si="6"/>
+        <v>109.18091072283377</v>
+      </c>
+      <c r="AD18">
         <f t="shared" si="2"/>
-        <v>109.18091072283377</v>
-      </c>
-      <c r="AD18">
-        <f>ROW(A18)</f>
         <v>18</v>
+      </c>
+      <c r="AE18" s="1">
+        <f t="shared" si="4"/>
+        <v>545.90455361416889</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -1779,24 +1878,28 @@
         <v>82</v>
       </c>
       <c r="Z19">
-        <f>SUM(B19:P19)</f>
+        <f t="shared" si="0"/>
         <v>82</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.6339218108635874E-3</v>
       </c>
-      <c r="AB19" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB19" s="2">
+        <f t="shared" si="3"/>
         <v>16.339218108635873</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AC19" s="2">
+        <f t="shared" si="6"/>
+        <v>121.32312701138007</v>
+      </c>
+      <c r="AD19">
         <f t="shared" si="2"/>
-        <v>121.32312701138007</v>
-      </c>
-      <c r="AD19">
-        <f>ROW(A19)</f>
         <v>19</v>
+      </c>
+      <c r="AE19" s="1">
+        <f t="shared" si="4"/>
+        <v>606.61563505690037</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -1810,24 +1913,28 @@
         <v>47</v>
       </c>
       <c r="Z20">
-        <f>SUM(B20:P20)</f>
+        <f t="shared" si="0"/>
         <v>179</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.5667317578607582E-3</v>
       </c>
-      <c r="AB20" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB20" s="2">
+        <f t="shared" si="3"/>
         <v>35.66731757860758</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AC20" s="2">
+        <f t="shared" si="6"/>
+        <v>155.2270448709977</v>
+      </c>
+      <c r="AD20">
         <f t="shared" si="2"/>
-        <v>155.2270448709977</v>
-      </c>
-      <c r="AD20">
-        <f>ROW(A20)</f>
         <v>20</v>
+      </c>
+      <c r="AE20" s="1">
+        <f t="shared" si="4"/>
+        <v>776.13522435498851</v>
       </c>
       <c r="AG20">
         <v>11</v>
@@ -1841,24 +1948,28 @@
         <v>11</v>
       </c>
       <c r="Z21">
-        <f>SUM(B21:P21)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.1918463316462759E-4</v>
       </c>
-      <c r="AB21" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB21" s="2">
+        <f t="shared" si="3"/>
         <v>2.1918463316462757</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AC21" s="2">
+        <f t="shared" si="6"/>
+        <v>34.081010288830903</v>
+      </c>
+      <c r="AD21">
         <f t="shared" si="2"/>
-        <v>34.081010288830903</v>
-      </c>
-      <c r="AD21">
-        <f>ROW(A21)</f>
         <v>21</v>
+      </c>
+      <c r="AE21" s="1">
+        <f t="shared" si="4"/>
+        <v>170.40505144415451</v>
       </c>
       <c r="AG21">
         <v>9</v>
@@ -1872,24 +1983,28 @@
         <v>54</v>
       </c>
       <c r="Z22">
-        <f>SUM(B22:P22)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0759972900808989E-3</v>
       </c>
-      <c r="AB22" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB22" s="2">
+        <f t="shared" si="3"/>
         <v>10.759972900808989</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AC22" s="2">
+        <f t="shared" si="6"/>
+        <v>103.18111775530522</v>
+      </c>
+      <c r="AD22">
         <f t="shared" si="2"/>
-        <v>103.18111775530522</v>
-      </c>
-      <c r="AD22">
-        <f>ROW(A22)</f>
         <v>22</v>
+      </c>
+      <c r="AE22" s="1">
+        <f t="shared" si="4"/>
+        <v>515.90558877652609</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -1909,24 +2024,28 @@
         <v>14</v>
       </c>
       <c r="Z23">
-        <f>SUM(B23:P23)</f>
+        <f t="shared" si="0"/>
         <v>771</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.5362850197266169E-2</v>
       </c>
-      <c r="AB23" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB23" s="2">
+        <f t="shared" si="3"/>
         <v>153.6285019726617</v>
       </c>
-      <c r="AC23" s="1">
+      <c r="AC23" s="2">
+        <f t="shared" si="6"/>
+        <v>218.64717957810407</v>
+      </c>
+      <c r="AD23">
         <f t="shared" si="2"/>
-        <v>218.64717957810407</v>
-      </c>
-      <c r="AD23">
-        <f>ROW(A23)</f>
         <v>23</v>
+      </c>
+      <c r="AE23" s="1">
+        <f t="shared" si="4"/>
+        <v>1093.2358978905204</v>
       </c>
       <c r="AG23">
         <v>6</v>
@@ -1940,24 +2059,28 @@
         <v>34</v>
       </c>
       <c r="Z24">
-        <f>SUM(B24:P24)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6.7747977523612165E-4</v>
       </c>
-      <c r="AB24" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB24" s="2">
+        <f t="shared" si="3"/>
         <v>6.7747977523612164</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AC24" s="2">
+        <f t="shared" si="6"/>
+        <v>83.089633477233917</v>
+      </c>
+      <c r="AD24">
         <f t="shared" si="2"/>
-        <v>83.089633477233917</v>
-      </c>
-      <c r="AD24">
-        <f>ROW(A24)</f>
         <v>24</v>
+      </c>
+      <c r="AE24" s="1">
+        <f t="shared" si="4"/>
+        <v>415.44816738616959</v>
       </c>
       <c r="AG24">
         <v>54</v>
@@ -1971,24 +2094,28 @@
         <v>7</v>
       </c>
       <c r="Z25">
-        <f>SUM(B25:P25)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.3948113019567209E-4</v>
       </c>
-      <c r="AB25" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB25" s="2">
+        <f t="shared" si="3"/>
         <v>1.394811301956721</v>
       </c>
-      <c r="AC25" s="1">
+      <c r="AC25" s="2">
+        <f t="shared" si="6"/>
+        <v>14.451545774434086</v>
+      </c>
+      <c r="AD25">
         <f t="shared" si="2"/>
-        <v>14.451545774434086</v>
-      </c>
-      <c r="AD25">
-        <f>ROW(A25)</f>
         <v>25</v>
+      </c>
+      <c r="AE25" s="1">
+        <f t="shared" si="4"/>
+        <v>72.257728872170432</v>
       </c>
       <c r="AG25">
         <v>33</v>
@@ -2005,24 +2132,28 @@
         <v>49</v>
       </c>
       <c r="Z26">
-        <f>SUM(B26:P26)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0560714143386602E-3</v>
       </c>
-      <c r="AB26" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB26" s="2">
+        <f t="shared" si="3"/>
         <v>10.560714143386601</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AC26" s="2">
+        <f t="shared" si="6"/>
+        <v>102.36932873308729</v>
+      </c>
+      <c r="AD26">
         <f t="shared" si="2"/>
-        <v>102.36932873308729</v>
-      </c>
-      <c r="AD26">
-        <f>ROW(A26)</f>
         <v>26</v>
+      </c>
+      <c r="AE26" s="1">
+        <f t="shared" si="4"/>
+        <v>511.84664366543643</v>
       </c>
       <c r="AG26">
         <v>32</v>
@@ -2036,24 +2167,28 @@
         <v>2</v>
       </c>
       <c r="Z27">
-        <f>SUM(B27:P27)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.9851751484477743E-5</v>
       </c>
-      <c r="AB27" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB27" s="2">
+        <f t="shared" si="3"/>
         <v>0.39851751484477743</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AC27" s="2">
+        <f t="shared" si="6"/>
+        <v>-39.955258660593472</v>
+      </c>
+      <c r="AD27">
         <f t="shared" si="2"/>
-        <v>-39.955258660593472</v>
-      </c>
-      <c r="AD27">
-        <f>ROW(A27)</f>
         <v>27</v>
+      </c>
+      <c r="AE27" s="1">
+        <f t="shared" si="4"/>
+        <v>-199.77629330296736</v>
       </c>
       <c r="AG27">
         <v>28</v>
@@ -2067,24 +2202,28 @@
         <v>54</v>
       </c>
       <c r="Z28">
-        <f>SUM(B28:P28)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0759972900808989E-3</v>
       </c>
-      <c r="AB28" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB28" s="2">
+        <f t="shared" si="3"/>
         <v>10.759972900808989</v>
       </c>
-      <c r="AC28" s="1">
+      <c r="AC28" s="2">
+        <f t="shared" si="6"/>
+        <v>103.18111775530522</v>
+      </c>
+      <c r="AD28">
         <f t="shared" si="2"/>
-        <v>103.18111775530522</v>
-      </c>
-      <c r="AD28">
-        <f>ROW(A28)</f>
         <v>28</v>
+      </c>
+      <c r="AE28" s="1">
+        <f t="shared" si="4"/>
+        <v>515.90558877652609</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -2095,24 +2234,28 @@
         <v>36</v>
       </c>
       <c r="Z29">
-        <f>SUM(B29:P29)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7.1733152672059941E-4</v>
       </c>
-      <c r="AB29" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB29" s="2">
+        <f t="shared" si="3"/>
         <v>7.1733152672059939</v>
       </c>
-      <c r="AC29" s="1">
+      <c r="AC29" s="2">
+        <f t="shared" si="6"/>
+        <v>85.571991849737131</v>
+      </c>
+      <c r="AD29">
         <f t="shared" si="2"/>
-        <v>85.571991849737131</v>
-      </c>
-      <c r="AD29">
-        <f>ROW(A29)</f>
         <v>29</v>
+      </c>
+      <c r="AE29" s="1">
+        <f t="shared" si="4"/>
+        <v>427.85995924868564</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -2123,24 +2266,28 @@
         <v>76</v>
       </c>
       <c r="Z30">
-        <f>SUM(B30:P30)</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="AA30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.5143665564101541E-3</v>
       </c>
-      <c r="AB30" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB30" s="2">
+        <f t="shared" si="3"/>
         <v>15.143665564101541</v>
       </c>
-      <c r="AC30" s="1">
+      <c r="AC30" s="2">
+        <f t="shared" si="6"/>
+        <v>118.02310100108753</v>
+      </c>
+      <c r="AD30">
         <f t="shared" si="2"/>
-        <v>118.02310100108753</v>
-      </c>
-      <c r="AD30">
-        <f>ROW(A30)</f>
         <v>30</v>
+      </c>
+      <c r="AE30" s="1">
+        <f t="shared" si="4"/>
+        <v>590.11550500543763</v>
       </c>
       <c r="AG30">
         <v>6</v>
@@ -2154,24 +2301,28 @@
         <v>34</v>
       </c>
       <c r="Z31">
-        <f>SUM(B31:P31)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6.7747977523612165E-4</v>
       </c>
-      <c r="AB31" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB31" s="2">
+        <f t="shared" si="3"/>
         <v>6.7747977523612164</v>
       </c>
-      <c r="AC31" s="1">
+      <c r="AC31" s="2">
+        <f t="shared" si="6"/>
+        <v>83.089633477233917</v>
+      </c>
+      <c r="AD31">
         <f t="shared" si="2"/>
-        <v>83.089633477233917</v>
-      </c>
-      <c r="AD31">
-        <f>ROW(A31)</f>
         <v>31</v>
+      </c>
+      <c r="AE31" s="1">
+        <f t="shared" si="4"/>
+        <v>415.44816738616959</v>
       </c>
       <c r="AG31">
         <v>9</v>
@@ -2188,24 +2339,28 @@
         <v>5</v>
       </c>
       <c r="Z32">
-        <f>SUM(B32:P32)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1955525445343323E-4</v>
       </c>
-      <c r="AB32" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB32" s="2">
+        <f t="shared" si="3"/>
         <v>1.1955525445343322</v>
       </c>
-      <c r="AC32" s="1">
+      <c r="AC32" s="2">
+        <f t="shared" si="6"/>
+        <v>7.7568668113727659</v>
+      </c>
+      <c r="AD32">
         <f t="shared" si="2"/>
-        <v>7.7568668113727659</v>
-      </c>
-      <c r="AD32">
-        <f>ROW(A32)</f>
         <v>32</v>
+      </c>
+      <c r="AE32" s="1">
+        <f t="shared" si="4"/>
+        <v>38.784334056863827</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -2219,24 +2374,28 @@
         <v>20</v>
       </c>
       <c r="Z33">
-        <f>SUM(B33:P33)</f>
+        <f t="shared" ref="Z33:Z64" si="7">SUM(B33:P33)</f>
         <v>31</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6.17702148009405E-4</v>
       </c>
-      <c r="AB33" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB33" s="2">
+        <f t="shared" si="3"/>
         <v>6.1770214800940497</v>
       </c>
-      <c r="AC33" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC33" s="2">
+        <f t="shared" si="6"/>
         <v>79.077911156435661</v>
       </c>
       <c r="AD33">
-        <f>ROW(A33)</f>
+        <f t="shared" ref="AD33:AD64" si="8">ROW(A33)</f>
         <v>33</v>
+      </c>
+      <c r="AE33" s="1">
+        <f t="shared" si="4"/>
+        <v>395.38955578217832</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -2247,24 +2406,28 @@
         <v>1</v>
       </c>
       <c r="Z34">
-        <f>SUM(B34:P34)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.9925875742238871E-5</v>
       </c>
-      <c r="AB34" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB34" s="2">
+        <f t="shared" si="3"/>
         <v>0.19925875742238872</v>
       </c>
-      <c r="AC34" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC34" s="2">
+        <f t="shared" si="6"/>
         <v>-70.058258226991583</v>
       </c>
       <c r="AD34">
-        <f>ROW(A34)</f>
+        <f t="shared" si="8"/>
         <v>34</v>
+      </c>
+      <c r="AE34" s="1">
+        <f t="shared" si="4"/>
+        <v>-350.29129113495793</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -2275,24 +2438,28 @@
         <v>45</v>
       </c>
       <c r="Z35">
-        <f>SUM(B35:P35)</f>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8.9666440840074923E-4</v>
       </c>
-      <c r="AB35" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB35" s="2">
+        <f t="shared" si="3"/>
         <v>8.966644084007493</v>
       </c>
-      <c r="AC35" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC35" s="2">
+        <f t="shared" si="6"/>
         <v>95.262993150542769</v>
       </c>
       <c r="AD35">
-        <f>ROW(A35)</f>
+        <f t="shared" si="8"/>
         <v>35</v>
+      </c>
+      <c r="AE35" s="1">
+        <f t="shared" si="4"/>
+        <v>476.31496575271387</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -2303,24 +2470,28 @@
         <v>132</v>
       </c>
       <c r="Z36">
-        <f>SUM(B36:P36)</f>
+        <f t="shared" si="7"/>
         <v>132</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.6302155979755311E-3</v>
       </c>
-      <c r="AB36" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB36" s="2">
+        <f t="shared" si="3"/>
         <v>26.302155979755309</v>
       </c>
-      <c r="AC36" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC36" s="2">
+        <f t="shared" si="6"/>
         <v>141.99913489359338</v>
       </c>
       <c r="AD36">
-        <f>ROW(A36)</f>
+        <f t="shared" si="8"/>
         <v>36</v>
+      </c>
+      <c r="AE36" s="1">
+        <f t="shared" si="4"/>
+        <v>709.99567446796686</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -2331,24 +2502,28 @@
         <v>6</v>
       </c>
       <c r="Z37">
-        <f>SUM(B37:P37)</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AA37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1955525445343323E-4</v>
       </c>
-      <c r="AB37" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB37" s="2">
+        <f t="shared" si="3"/>
         <v>1.1955525445343322</v>
       </c>
-      <c r="AC37" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC37" s="2">
+        <f t="shared" si="6"/>
         <v>7.7568668113727659</v>
       </c>
       <c r="AD37">
-        <f>ROW(A37)</f>
+        <f t="shared" si="8"/>
         <v>37</v>
+      </c>
+      <c r="AE37" s="1">
+        <f t="shared" si="4"/>
+        <v>38.784334056863827</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -2359,24 +2534,28 @@
         <v>175</v>
       </c>
       <c r="Z38">
-        <f>SUM(B38:P38)</f>
+        <f t="shared" si="7"/>
         <v>175</v>
       </c>
       <c r="AA38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.4870282548918026E-3</v>
       </c>
-      <c r="AB38" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB38" s="2">
+        <f t="shared" si="3"/>
         <v>34.870282548918027</v>
       </c>
-      <c r="AC38" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC38" s="2">
+        <f t="shared" si="6"/>
         <v>154.24554664163784</v>
       </c>
       <c r="AD38">
-        <f>ROW(A38)</f>
+        <f t="shared" si="8"/>
         <v>38</v>
+      </c>
+      <c r="AE38" s="1">
+        <f t="shared" si="4"/>
+        <v>771.22773320818919</v>
       </c>
     </row>
     <row r="39" spans="1:33">
@@ -2399,24 +2578,28 @@
         <v>51</v>
       </c>
       <c r="Z39">
-        <f>SUM(B39:P39)</f>
+        <f t="shared" si="7"/>
         <v>231</v>
       </c>
       <c r="AA39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.6028772964571791E-3</v>
       </c>
-      <c r="AB39" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB39" s="2">
+        <f t="shared" si="3"/>
         <v>46.028772964571793</v>
       </c>
-      <c r="AC39" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC39" s="2">
+        <f t="shared" si="6"/>
         <v>166.30293976222282</v>
       </c>
       <c r="AD39">
-        <f>ROW(A39)</f>
+        <f t="shared" si="8"/>
         <v>39</v>
+      </c>
+      <c r="AE39" s="1">
+        <f t="shared" si="4"/>
+        <v>831.51469881111416</v>
       </c>
       <c r="AG39" t="s">
         <v>175</v>
@@ -2430,24 +2613,28 @@
         <v>26</v>
       </c>
       <c r="Z40">
-        <f>SUM(B40:P40)</f>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5.180727692982107E-4</v>
       </c>
-      <c r="AB40" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB40" s="2">
+        <f t="shared" si="3"/>
         <v>5.1807276929821073</v>
       </c>
-      <c r="AC40" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC40" s="2">
+        <f t="shared" si="6"/>
         <v>71.439076570090194</v>
       </c>
       <c r="AD40">
-        <f>ROW(A40)</f>
+        <f t="shared" si="8"/>
         <v>40</v>
+      </c>
+      <c r="AE40" s="1">
+        <f t="shared" si="4"/>
+        <v>357.19538285045098</v>
       </c>
     </row>
     <row r="41" spans="1:33">
@@ -2458,24 +2645,28 @@
         <v>602</v>
       </c>
       <c r="Z41">
-        <f>SUM(B41:P41)</f>
+        <f t="shared" si="7"/>
         <v>602</v>
       </c>
       <c r="AA41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.19953771968278E-2</v>
       </c>
-      <c r="AB41" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB41" s="2">
+        <f t="shared" si="3"/>
         <v>119.95377196827801</v>
       </c>
-      <c r="AC41" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC41" s="2">
+        <f t="shared" si="6"/>
         <v>207.90139089879082</v>
       </c>
       <c r="AD41">
-        <f>ROW(A41)</f>
+        <f t="shared" si="8"/>
         <v>41</v>
+      </c>
+      <c r="AE41" s="1">
+        <f t="shared" si="4"/>
+        <v>1039.506954493954</v>
       </c>
     </row>
     <row r="42" spans="1:33">
@@ -2486,24 +2677,28 @@
         <v>22</v>
       </c>
       <c r="Z42">
-        <f>SUM(B42:P42)</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="AA42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.3836926632925518E-4</v>
       </c>
-      <c r="AB42" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB42" s="2">
+        <f t="shared" si="3"/>
         <v>4.3836926632925515</v>
       </c>
-      <c r="AC42" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC42" s="2">
+        <f t="shared" si="6"/>
         <v>64.184009855229021</v>
       </c>
       <c r="AD42">
-        <f>ROW(A42)</f>
+        <f t="shared" si="8"/>
         <v>42</v>
+      </c>
+      <c r="AE42" s="1">
+        <f t="shared" si="4"/>
+        <v>320.92004927614511</v>
       </c>
     </row>
     <row r="43" spans="1:33">
@@ -2514,24 +2709,28 @@
         <v>10</v>
       </c>
       <c r="Z43">
-        <f>SUM(B43:P43)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.9925875742238871E-4</v>
       </c>
-      <c r="AB43" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB43" s="2">
+        <f t="shared" si="3"/>
         <v>1.992587574223887</v>
       </c>
-      <c r="AC43" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC43" s="2">
+        <f t="shared" si="6"/>
         <v>29.941741773008395</v>
       </c>
       <c r="AD43">
-        <f>ROW(A43)</f>
+        <f t="shared" si="8"/>
         <v>43</v>
+      </c>
+      <c r="AE43" s="1">
+        <f t="shared" si="4"/>
+        <v>149.70870886504198</v>
       </c>
     </row>
     <row r="44" spans="1:33">
@@ -2551,24 +2750,28 @@
         <v>27</v>
       </c>
       <c r="Z44">
-        <f>SUM(B44:P44)</f>
+        <f t="shared" si="7"/>
         <v>195</v>
       </c>
       <c r="AA44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.8855457697365798E-3</v>
       </c>
-      <c r="AB44" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB44" s="2">
+        <f t="shared" si="3"/>
         <v>38.8554576973658</v>
       </c>
-      <c r="AC44" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC44" s="2">
+        <f t="shared" si="6"/>
         <v>158.94520290926019</v>
       </c>
       <c r="AD44">
-        <f>ROW(A44)</f>
+        <f t="shared" si="8"/>
         <v>44</v>
+      </c>
+      <c r="AE44" s="1">
+        <f t="shared" si="4"/>
+        <v>794.72601454630092</v>
       </c>
       <c r="AG44">
         <v>5</v>
@@ -2582,24 +2785,28 @@
         <v>18</v>
       </c>
       <c r="Z45">
-        <f>SUM(B45:P45)</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="AA45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.586657633602997E-4</v>
       </c>
-      <c r="AB45" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB45" s="2">
+        <f t="shared" si="3"/>
         <v>3.5866576336029969</v>
       </c>
-      <c r="AC45" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC45" s="2">
+        <f t="shared" si="6"/>
         <v>55.468992283339006</v>
       </c>
       <c r="AD45">
-        <f>ROW(A45)</f>
+        <f t="shared" si="8"/>
         <v>45</v>
+      </c>
+      <c r="AE45" s="1">
+        <f t="shared" si="4"/>
+        <v>277.34496141669501</v>
       </c>
       <c r="AG45">
         <v>6</v>
@@ -2613,24 +2820,28 @@
         <v>38</v>
       </c>
       <c r="Z46">
-        <f>SUM(B46:P46)</f>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="AA46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7.5718327820507706E-4</v>
       </c>
-      <c r="AB46" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB46" s="2">
+        <f t="shared" si="3"/>
         <v>7.5718327820507705</v>
       </c>
-      <c r="AC46" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC46" s="2">
+        <f t="shared" si="6"/>
         <v>87.920101434689414</v>
       </c>
       <c r="AD46">
-        <f>ROW(A46)</f>
+        <f t="shared" si="8"/>
         <v>46</v>
+      </c>
+      <c r="AE46" s="1">
+        <f t="shared" si="4"/>
+        <v>439.60050717344706</v>
       </c>
     </row>
     <row r="47" spans="1:33">
@@ -2641,24 +2852,28 @@
         <v>1</v>
       </c>
       <c r="Z47">
-        <f>SUM(B47:P47)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AA47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.9925875742238871E-5</v>
       </c>
-      <c r="AB47" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB47" s="2">
+        <f t="shared" si="3"/>
         <v>0.19925875742238872</v>
       </c>
-      <c r="AC47" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC47" s="2">
+        <f t="shared" si="6"/>
         <v>-70.058258226991583</v>
       </c>
       <c r="AD47">
-        <f>ROW(A47)</f>
+        <f t="shared" si="8"/>
         <v>47</v>
+      </c>
+      <c r="AE47" s="1">
+        <f t="shared" si="4"/>
+        <v>-350.29129113495793</v>
       </c>
     </row>
     <row r="48" spans="1:33">
@@ -2669,24 +2884,28 @@
         <v>80</v>
       </c>
       <c r="Z48">
-        <f>SUM(B48:P48)</f>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="AA48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.5940700593791097E-3</v>
       </c>
-      <c r="AB48" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB48" s="2">
+        <f t="shared" si="3"/>
         <v>15.940700593791096</v>
       </c>
-      <c r="AC48" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC48" s="2">
+        <f t="shared" si="6"/>
         <v>120.25074047220275</v>
       </c>
       <c r="AD48">
-        <f>ROW(A48)</f>
+        <f t="shared" si="8"/>
         <v>48</v>
+      </c>
+      <c r="AE48" s="1">
+        <f t="shared" si="4"/>
+        <v>601.25370236101378</v>
       </c>
       <c r="AG48">
         <v>170</v>
@@ -2700,24 +2919,28 @@
         <v>13</v>
       </c>
       <c r="Z49">
-        <f>SUM(B49:P49)</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="AA49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.5903638464910535E-4</v>
       </c>
-      <c r="AB49" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB49" s="2">
+        <f t="shared" si="3"/>
         <v>2.5903638464910537</v>
       </c>
-      <c r="AC49" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC49" s="2">
+        <f t="shared" si="6"/>
         <v>41.336077003692083</v>
       </c>
       <c r="AD49">
-        <f>ROW(A49)</f>
+        <f t="shared" si="8"/>
         <v>49</v>
+      </c>
+      <c r="AE49" s="1">
+        <f t="shared" si="4"/>
+        <v>206.68038501846041</v>
       </c>
     </row>
     <row r="50" spans="1:33">
@@ -2728,24 +2951,28 @@
         <v>23</v>
       </c>
       <c r="Z50">
-        <f>SUM(B50:P50)</f>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="AA50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.5829514207149406E-4</v>
       </c>
-      <c r="AB50" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB50" s="2">
+        <f t="shared" si="3"/>
         <v>4.5829514207149407</v>
       </c>
-      <c r="AC50" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC50" s="2">
+        <f t="shared" si="6"/>
         <v>66.114525374767695</v>
       </c>
       <c r="AD50">
-        <f>ROW(A50)</f>
+        <f t="shared" si="8"/>
         <v>50</v>
+      </c>
+      <c r="AE50" s="1">
+        <f t="shared" si="4"/>
+        <v>330.57262687383849</v>
       </c>
     </row>
     <row r="51" spans="1:33">
@@ -2756,24 +2983,28 @@
         <v>15</v>
       </c>
       <c r="Z51">
-        <f>SUM(B51:P51)</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="AA51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2.9888813613358306E-4</v>
       </c>
-      <c r="AB51" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB51" s="2">
+        <f t="shared" si="3"/>
         <v>2.9888813613358307</v>
       </c>
-      <c r="AC51" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC51" s="2">
+        <f t="shared" si="6"/>
         <v>47.550867678576516</v>
       </c>
       <c r="AD51">
-        <f>ROW(A51)</f>
+        <f t="shared" si="8"/>
         <v>51</v>
+      </c>
+      <c r="AE51" s="1">
+        <f t="shared" si="4"/>
+        <v>237.75433839288257</v>
       </c>
     </row>
     <row r="52" spans="1:33">
@@ -2784,24 +3015,28 @@
         <v>38</v>
       </c>
       <c r="Z52">
-        <f>SUM(B52:P52)</f>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="AA52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7.5718327820507706E-4</v>
       </c>
-      <c r="AB52" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB52" s="2">
+        <f t="shared" si="3"/>
         <v>7.5718327820507705</v>
       </c>
-      <c r="AC52" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC52" s="2">
+        <f t="shared" si="6"/>
         <v>87.920101434689414</v>
       </c>
       <c r="AD52">
-        <f>ROW(A52)</f>
+        <f t="shared" si="8"/>
         <v>52</v>
+      </c>
+      <c r="AE52" s="1">
+        <f t="shared" si="4"/>
+        <v>439.60050717344706</v>
       </c>
     </row>
     <row r="53" spans="1:33">
@@ -2812,24 +3047,28 @@
         <v>1</v>
       </c>
       <c r="Z53">
-        <f>SUM(B53:P53)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AA53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.9925875742238871E-5</v>
       </c>
-      <c r="AB53" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB53" s="2">
+        <f t="shared" si="3"/>
         <v>0.19925875742238872</v>
       </c>
-      <c r="AC53" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC53" s="2">
+        <f t="shared" si="6"/>
         <v>-70.058258226991583</v>
       </c>
       <c r="AD53">
-        <f>ROW(A53)</f>
+        <f t="shared" si="8"/>
         <v>53</v>
+      </c>
+      <c r="AE53" s="1">
+        <f t="shared" si="4"/>
+        <v>-350.29129113495793</v>
       </c>
     </row>
     <row r="54" spans="1:33">
@@ -2840,24 +3079,28 @@
         <v>35</v>
       </c>
       <c r="Z54">
-        <f>SUM(B54:P54)</f>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="AA54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6.9740565097836053E-4</v>
       </c>
-      <c r="AB54" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB54" s="2">
+        <f t="shared" si="3"/>
         <v>6.9740565097836056</v>
       </c>
-      <c r="AC54" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC54" s="2">
+        <f t="shared" si="6"/>
         <v>84.34854620803597</v>
       </c>
       <c r="AD54">
-        <f>ROW(A54)</f>
+        <f t="shared" si="8"/>
         <v>54</v>
+      </c>
+      <c r="AE54" s="1">
+        <f t="shared" si="4"/>
+        <v>421.74273104017982</v>
       </c>
       <c r="AG54">
         <v>72</v>
@@ -2895,24 +3138,28 @@
         <v>61</v>
       </c>
       <c r="Z55">
-        <f>SUM(B55:P55)</f>
+        <f t="shared" si="7"/>
         <v>1561</v>
       </c>
       <c r="AA55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.1104292033634878E-2</v>
       </c>
-      <c r="AB55" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB55" s="2">
+        <f t="shared" si="3"/>
         <v>311.0429203363488</v>
       </c>
-      <c r="AC55" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC55" s="2">
+        <f t="shared" si="6"/>
         <v>249.28203207925014</v>
       </c>
       <c r="AD55">
-        <f>ROW(A55)</f>
+        <f t="shared" si="8"/>
         <v>55</v>
+      </c>
+      <c r="AE55" s="1">
+        <f t="shared" si="4"/>
+        <v>1246.4101603962508</v>
       </c>
       <c r="AG55">
         <v>56</v>
@@ -2926,24 +3173,28 @@
         <v>161</v>
       </c>
       <c r="Z56">
-        <f>SUM(B56:P56)</f>
+        <f t="shared" si="7"/>
         <v>161</v>
       </c>
       <c r="AA56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.2080659945004585E-3</v>
       </c>
-      <c r="AB56" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB56" s="2">
+        <f t="shared" si="3"/>
         <v>32.080659945004584</v>
       </c>
-      <c r="AC56" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC56" s="2">
+        <f t="shared" si="6"/>
         <v>150.62432937619334</v>
       </c>
       <c r="AD56">
-        <f>ROW(A56)</f>
+        <f t="shared" si="8"/>
         <v>56</v>
+      </c>
+      <c r="AE56" s="1">
+        <f t="shared" si="4"/>
+        <v>753.12164688096675</v>
       </c>
     </row>
     <row r="57" spans="1:33">
@@ -2957,24 +3208,28 @@
         <v>25</v>
       </c>
       <c r="Z57">
-        <f>SUM(B57:P57)</f>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="AA57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6.7747977523612165E-4</v>
       </c>
-      <c r="AB57" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB57" s="2">
+        <f t="shared" si="3"/>
         <v>6.7747977523612164</v>
       </c>
-      <c r="AC57" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC57" s="2">
+        <f t="shared" si="6"/>
         <v>83.089633477233917</v>
       </c>
       <c r="AD57">
-        <f>ROW(A57)</f>
+        <f t="shared" si="8"/>
         <v>57</v>
+      </c>
+      <c r="AE57" s="1">
+        <f t="shared" si="4"/>
+        <v>415.44816738616959</v>
       </c>
     </row>
     <row r="58" spans="1:33">
@@ -2988,26 +3243,31 @@
         <v>13</v>
       </c>
       <c r="Z58">
-        <f>SUM(B58:P58)</f>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="AA58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.5644203562746588E-4</v>
       </c>
-      <c r="AB58" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB58" s="2">
+        <f t="shared" si="3"/>
         <v>9.5644203562746579</v>
       </c>
-      <c r="AC58" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC58" s="2">
+        <f t="shared" si="6"/>
         <v>98.065865510567122</v>
       </c>
       <c r="AD58">
-        <f>ROW(A58)</f>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
-      <c r="AG58">
+      <c r="AE58" s="1">
+        <f t="shared" si="4"/>
+        <v>490.32932755283559</v>
+      </c>
+      <c r="AF58" s="1"/>
+      <c r="AG58" s="1">
         <v>260</v>
       </c>
     </row>
@@ -3025,24 +3285,28 @@
         <v>37</v>
       </c>
       <c r="Z59">
-        <f>SUM(B59:P59)</f>
+        <f t="shared" si="7"/>
         <v>381</v>
       </c>
       <c r="AA59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7.5917586577930098E-3</v>
       </c>
-      <c r="AB59" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB59" s="2">
+        <f t="shared" si="3"/>
         <v>75.917586577930095</v>
       </c>
-      <c r="AC59" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC59" s="2">
+        <f t="shared" si="6"/>
         <v>188.03423934057034</v>
       </c>
       <c r="AD59">
-        <f>ROW(A59)</f>
+        <f t="shared" si="8"/>
         <v>59</v>
+      </c>
+      <c r="AE59" s="1">
+        <f t="shared" si="4"/>
+        <v>940.17119670285172</v>
       </c>
       <c r="AG59">
         <v>21</v>
@@ -3056,24 +3320,28 @@
         <v>34</v>
       </c>
       <c r="Z60">
-        <f>SUM(B60:P60)</f>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="AA60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6.7747977523612165E-4</v>
       </c>
-      <c r="AB60" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB60" s="2">
+        <f t="shared" si="3"/>
         <v>6.7747977523612164</v>
       </c>
-      <c r="AC60" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC60" s="2">
+        <f t="shared" si="6"/>
         <v>83.089633477233917</v>
       </c>
       <c r="AD60">
-        <f>ROW(A60)</f>
+        <f t="shared" si="8"/>
         <v>60</v>
+      </c>
+      <c r="AE60" s="1">
+        <f t="shared" si="4"/>
+        <v>415.44816738616959</v>
       </c>
     </row>
     <row r="61" spans="1:33">
@@ -3087,24 +3355,28 @@
         <v>139</v>
       </c>
       <c r="Z61">
-        <f>SUM(B61:P61)</f>
+        <f t="shared" si="7"/>
         <v>209</v>
       </c>
       <c r="AA61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.1645080301279244E-3</v>
       </c>
-      <c r="AB61" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB61" s="2">
+        <f t="shared" si="3"/>
         <v>41.645080301279243</v>
       </c>
-      <c r="AC61" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC61" s="2">
+        <f t="shared" si="6"/>
         <v>161.9563703841138</v>
       </c>
       <c r="AD61">
-        <f>ROW(A61)</f>
+        <f t="shared" si="8"/>
         <v>61</v>
+      </c>
+      <c r="AE61" s="1">
+        <f t="shared" si="4"/>
+        <v>809.78185192056901</v>
       </c>
     </row>
     <row r="62" spans="1:33">
@@ -3115,24 +3387,28 @@
         <v>28</v>
       </c>
       <c r="Z62">
-        <f>SUM(B62:P62)</f>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="AA62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5.5792452078268836E-4</v>
       </c>
-      <c r="AB62" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB62" s="2">
+        <f t="shared" si="3"/>
         <v>5.5792452078268839</v>
       </c>
-      <c r="AC62" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC62" s="2">
+        <f t="shared" si="6"/>
         <v>74.657544907230317</v>
       </c>
       <c r="AD62">
-        <f>ROW(A62)</f>
+        <f t="shared" si="8"/>
         <v>62</v>
+      </c>
+      <c r="AE62" s="1">
+        <f t="shared" si="4"/>
+        <v>373.28772453615159</v>
       </c>
     </row>
     <row r="63" spans="1:33">
@@ -3143,24 +3419,28 @@
         <v>18</v>
       </c>
       <c r="Z63">
-        <f>SUM(B63:P63)</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="AA63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.586657633602997E-4</v>
       </c>
-      <c r="AB63" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB63" s="2">
+        <f t="shared" si="3"/>
         <v>3.5866576336029969</v>
       </c>
-      <c r="AC63" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC63" s="2">
+        <f t="shared" si="6"/>
         <v>55.468992283339006</v>
       </c>
       <c r="AD63">
-        <f>ROW(A63)</f>
+        <f t="shared" si="8"/>
         <v>63</v>
+      </c>
+      <c r="AE63" s="1">
+        <f t="shared" si="4"/>
+        <v>277.34496141669501</v>
       </c>
     </row>
     <row r="64" spans="1:33">
@@ -3171,24 +3451,28 @@
         <v>24</v>
       </c>
       <c r="Z64">
-        <f>SUM(B64:P64)</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="AA64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4.7822101781373294E-4</v>
       </c>
-      <c r="AB64" s="1">
-        <f t="shared" si="0"/>
+      <c r="AB64" s="2">
+        <f t="shared" si="3"/>
         <v>4.782210178137329</v>
       </c>
-      <c r="AC64" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC64" s="2">
+        <f t="shared" si="6"/>
         <v>67.96286594416901</v>
       </c>
       <c r="AD64">
-        <f>ROW(A64)</f>
+        <f t="shared" si="8"/>
         <v>64</v>
+      </c>
+      <c r="AE64" s="1">
+        <f t="shared" si="4"/>
+        <v>339.81432972084508</v>
       </c>
       <c r="AG64">
         <v>6.75</v>
@@ -3211,24 +3495,28 @@
         <v>7</v>
       </c>
       <c r="Z65">
-        <f>SUM(B65:P65)</f>
+        <f t="shared" ref="Z65:Z76" si="9">SUM(B65:P65)</f>
         <v>38</v>
       </c>
       <c r="AA65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7.5718327820507706E-4</v>
       </c>
-      <c r="AB65" s="1">
-        <f t="shared" ref="AB65:AB122" si="3">AA65*10000</f>
+      <c r="AB65" s="2">
+        <f t="shared" ref="AB65:AB122" si="10">AA65*10000</f>
         <v>7.5718327820507705</v>
       </c>
-      <c r="AC65" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC65" s="2">
+        <f t="shared" si="6"/>
         <v>87.920101434689414</v>
       </c>
       <c r="AD65">
-        <f>ROW(A65)</f>
+        <f t="shared" ref="AD65:AD96" si="11">ROW(A65)</f>
         <v>65</v>
+      </c>
+      <c r="AE65" s="1">
+        <f t="shared" si="4"/>
+        <v>439.60050717344706</v>
       </c>
     </row>
     <row r="66" spans="1:33">
@@ -3245,24 +3533,28 @@
         <v>31</v>
       </c>
       <c r="Z66">
-        <f>SUM(B66:P66)</f>
+        <f t="shared" si="9"/>
         <v>358</v>
       </c>
       <c r="AA66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7.1334635157215163E-3</v>
       </c>
-      <c r="AB66" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB66" s="2">
+        <f t="shared" si="10"/>
         <v>71.33463515721516</v>
       </c>
-      <c r="AC66" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC66" s="2">
+        <f t="shared" si="6"/>
         <v>185.33004443739583</v>
       </c>
       <c r="AD66">
-        <f>ROW(A66)</f>
+        <f t="shared" si="11"/>
         <v>66</v>
+      </c>
+      <c r="AE66" s="1">
+        <f t="shared" ref="AE66:AE122" si="12">AC66*5</f>
+        <v>926.65022218697914</v>
       </c>
       <c r="AG66">
         <v>17</v>
@@ -3276,26 +3568,31 @@
         <v>323</v>
       </c>
       <c r="Z67">
-        <f>SUM(B67:P67)</f>
+        <f t="shared" si="9"/>
         <v>323</v>
       </c>
       <c r="AA67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6.4360578647431558E-3</v>
       </c>
-      <c r="AB67" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB67" s="2">
+        <f t="shared" si="10"/>
         <v>64.360578647431552</v>
       </c>
-      <c r="AC67" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC67" s="2">
+        <f t="shared" si="6"/>
         <v>180.86199400611869</v>
       </c>
       <c r="AD67">
-        <f>ROW(A67)</f>
+        <f t="shared" si="11"/>
         <v>67</v>
       </c>
-      <c r="AG67">
+      <c r="AE67" s="1">
+        <f t="shared" si="12"/>
+        <v>904.30997003059349</v>
+      </c>
+      <c r="AF67" s="1"/>
+      <c r="AG67" s="1">
         <v>140</v>
       </c>
     </row>
@@ -3307,24 +3604,28 @@
         <v>1</v>
       </c>
       <c r="Z68">
-        <f>SUM(B68:P68)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AA68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.9925875742238871E-5</v>
       </c>
-      <c r="AB68" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB68" s="2">
+        <f t="shared" si="10"/>
         <v>0.19925875742238872</v>
       </c>
-      <c r="AC68" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC68" s="2">
+        <f t="shared" si="6"/>
         <v>-70.058258226991583</v>
       </c>
       <c r="AD68">
-        <f>ROW(A68)</f>
+        <f t="shared" si="11"/>
         <v>68</v>
+      </c>
+      <c r="AE68" s="1">
+        <f t="shared" si="12"/>
+        <v>-350.29129113495793</v>
       </c>
     </row>
     <row r="69" spans="1:33">
@@ -3335,24 +3636,28 @@
         <v>33</v>
       </c>
       <c r="Z69">
-        <f>SUM(B69:P69)</f>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="AA69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6.5755389949388276E-4</v>
       </c>
-      <c r="AB69" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB69" s="2">
+        <f t="shared" si="10"/>
         <v>6.5755389949388272</v>
       </c>
-      <c r="AC69" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC69" s="2">
+        <f t="shared" si="6"/>
         <v>81.793135760797142</v>
       </c>
       <c r="AD69">
-        <f>ROW(A69)</f>
+        <f t="shared" si="11"/>
         <v>69</v>
+      </c>
+      <c r="AE69" s="1">
+        <f t="shared" si="12"/>
+        <v>408.96567880398572</v>
       </c>
       <c r="AG69">
         <v>55</v>
@@ -3366,24 +3671,28 @@
         <v>19</v>
       </c>
       <c r="Z70">
-        <f>SUM(B70:P70)</f>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="AA70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.7859163910253853E-4</v>
       </c>
-      <c r="AB70" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB70" s="2">
+        <f t="shared" si="10"/>
         <v>3.7859163910253852</v>
       </c>
-      <c r="AC70" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC70" s="2">
+        <f t="shared" si="6"/>
         <v>57.817101868291289</v>
       </c>
       <c r="AD70">
-        <f>ROW(A70)</f>
+        <f t="shared" si="11"/>
         <v>70</v>
+      </c>
+      <c r="AE70" s="1">
+        <f t="shared" si="12"/>
+        <v>289.08550934145643</v>
       </c>
       <c r="AG70">
         <v>50</v>
@@ -3397,24 +3706,28 @@
         <v>10</v>
       </c>
       <c r="Z71">
-        <f>SUM(B71:P71)</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="AA71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.9925875742238871E-4</v>
       </c>
-      <c r="AB71" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB71" s="2">
+        <f t="shared" si="10"/>
         <v>1.992587574223887</v>
       </c>
-      <c r="AC71" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC71" s="2">
+        <f t="shared" si="6"/>
         <v>29.941741773008395</v>
       </c>
       <c r="AD71">
-        <f>ROW(A71)</f>
+        <f t="shared" si="11"/>
         <v>71</v>
+      </c>
+      <c r="AE71" s="1">
+        <f t="shared" si="12"/>
+        <v>149.70870886504198</v>
       </c>
     </row>
     <row r="72" spans="1:33">
@@ -3425,24 +3738,28 @@
         <v>2</v>
       </c>
       <c r="Z72">
-        <f>SUM(B72:P72)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AA72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3.9851751484477743E-5</v>
       </c>
-      <c r="AB72" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB72" s="2">
+        <f t="shared" si="10"/>
         <v>0.39851751484477743</v>
       </c>
-      <c r="AC72" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC72" s="2">
+        <f t="shared" si="6"/>
         <v>-39.955258660593472</v>
       </c>
       <c r="AD72">
-        <f>ROW(A72)</f>
+        <f t="shared" si="11"/>
         <v>72</v>
+      </c>
+      <c r="AE72" s="1">
+        <f t="shared" si="12"/>
+        <v>-199.77629330296736</v>
       </c>
     </row>
     <row r="73" spans="1:33">
@@ -3453,24 +3770,28 @@
         <v>5</v>
       </c>
       <c r="Z73">
-        <f>SUM(B73:P73)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="AA73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9.9629378711194353E-5</v>
       </c>
-      <c r="AB73" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB73" s="2">
+        <f t="shared" si="10"/>
         <v>0.9962937871119435</v>
       </c>
-      <c r="AC73" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC73" s="2">
+        <f t="shared" si="6"/>
         <v>-0.16125779338971788</v>
       </c>
       <c r="AD73">
-        <f>ROW(A73)</f>
+        <f t="shared" si="11"/>
         <v>73</v>
+      </c>
+      <c r="AE73" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.80628896694858943</v>
       </c>
     </row>
     <row r="74" spans="1:33">
@@ -3481,24 +3802,28 @@
         <v>60</v>
       </c>
       <c r="Z74">
-        <f>SUM(B74:P74)</f>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="AA74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1955525445343322E-3</v>
       </c>
-      <c r="AB74" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB74" s="2">
+        <f t="shared" si="10"/>
         <v>11.955525445343323</v>
       </c>
-      <c r="AC74" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC74" s="2">
+        <f t="shared" si="6"/>
         <v>107.75686681137276</v>
       </c>
       <c r="AD74">
-        <f>ROW(A74)</f>
+        <f t="shared" si="11"/>
         <v>74</v>
+      </c>
+      <c r="AE74" s="1">
+        <f t="shared" si="12"/>
+        <v>538.78433405686383</v>
       </c>
     </row>
     <row r="75" spans="1:33">
@@ -3509,24 +3834,28 @@
         <v>75</v>
       </c>
       <c r="Z75">
-        <f>SUM(B75:P75)</f>
+        <f t="shared" si="9"/>
         <v>75</v>
       </c>
       <c r="AA75">
-        <f t="shared" ref="AA75:AA122" si="4">Z75/50186</f>
+        <f t="shared" ref="AA75:AA122" si="13">Z75/50186</f>
         <v>1.4944406806679154E-3</v>
       </c>
-      <c r="AB75" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB75" s="2">
+        <f t="shared" si="10"/>
         <v>14.944406806679153</v>
       </c>
-      <c r="AC75" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC75" s="2">
+        <f t="shared" si="6"/>
         <v>117.4478681121784</v>
       </c>
       <c r="AD75">
-        <f>ROW(A75)</f>
+        <f t="shared" si="11"/>
         <v>75</v>
+      </c>
+      <c r="AE75" s="1">
+        <f t="shared" si="12"/>
+        <v>587.23934056089195</v>
       </c>
     </row>
     <row r="76" spans="1:33">
@@ -3543,24 +3872,28 @@
         <v>4</v>
       </c>
       <c r="Z76">
-        <f>SUM(B76:P76)</f>
+        <f t="shared" si="9"/>
         <v>147</v>
       </c>
       <c r="AA76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2.929103734109114E-3</v>
       </c>
-      <c r="AB76" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB76" s="2">
+        <f t="shared" si="10"/>
         <v>29.29103734109114</v>
       </c>
-      <c r="AC76" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC76" s="2">
+        <f t="shared" si="6"/>
         <v>146.67347524782599</v>
       </c>
       <c r="AD76">
-        <f>ROW(A76)</f>
+        <f t="shared" si="11"/>
         <v>76</v>
+      </c>
+      <c r="AE76" s="1">
+        <f t="shared" si="12"/>
+        <v>733.36737623912995</v>
       </c>
     </row>
     <row r="77" spans="1:33">
@@ -3644,17 +3977,21 @@
         <f>Z77/50186</f>
         <v>3.3595026501414736E-2</v>
       </c>
-      <c r="AB77" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB77" s="2">
+        <f t="shared" si="10"/>
         <v>335.95026501414736</v>
       </c>
-      <c r="AC77" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC77" s="2">
+        <f t="shared" si="6"/>
         <v>252.62749880188076</v>
       </c>
       <c r="AD77">
-        <f>ROW(A77)</f>
+        <f t="shared" si="11"/>
         <v>77</v>
+      </c>
+      <c r="AE77" s="1">
+        <f t="shared" si="12"/>
+        <v>1263.1374940094038</v>
       </c>
       <c r="AG77">
         <v>8</v>
@@ -3668,24 +4005,28 @@
         <v>77</v>
       </c>
       <c r="Z78">
-        <f>SUM(B78:P78)</f>
+        <f t="shared" ref="Z78:Z122" si="14">SUM(B78:P78)</f>
         <v>77</v>
       </c>
       <c r="AA78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.5342924321523931E-3</v>
       </c>
-      <c r="AB78" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB78" s="2">
+        <f t="shared" si="10"/>
         <v>15.342924321523931</v>
       </c>
-      <c r="AC78" s="1">
-        <f t="shared" si="2"/>
+      <c r="AC78" s="2">
+        <f t="shared" si="6"/>
         <v>118.59081429025657</v>
       </c>
       <c r="AD78">
-        <f>ROW(A78)</f>
+        <f t="shared" si="11"/>
         <v>78</v>
+      </c>
+      <c r="AE78" s="1">
+        <f t="shared" si="12"/>
+        <v>592.95407145128286</v>
       </c>
     </row>
     <row r="79" spans="1:33">
@@ -3699,24 +4040,28 @@
         <v>49</v>
       </c>
       <c r="Z79">
-        <f>SUM(B79:P79)</f>
+        <f t="shared" si="14"/>
         <v>116</v>
       </c>
       <c r="AA79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2.311401586099709E-3</v>
       </c>
-      <c r="AB79" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB79" s="2">
+        <f t="shared" si="10"/>
         <v>23.114015860997089</v>
       </c>
-      <c r="AC79" s="1">
-        <f t="shared" ref="AC79:AC122" si="5">LOG(AB79,10)*100</f>
+      <c r="AC79" s="2">
+        <f t="shared" ref="AC79:AC122" si="15">LOG(AB79,10)*100</f>
         <v>136.38754069570024</v>
       </c>
       <c r="AD79">
-        <f>ROW(A79)</f>
+        <f t="shared" si="11"/>
         <v>79</v>
+      </c>
+      <c r="AE79" s="1">
+        <f t="shared" si="12"/>
+        <v>681.93770347850113</v>
       </c>
     </row>
     <row r="80" spans="1:33">
@@ -3727,24 +4072,28 @@
         <v>9</v>
       </c>
       <c r="Z80">
-        <f>SUM(B80:P80)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="AA80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.7933288168014985E-4</v>
       </c>
-      <c r="AB80" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB80" s="2">
+        <f t="shared" si="10"/>
         <v>1.7933288168014985</v>
       </c>
-      <c r="AC80" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC80" s="2">
+        <f t="shared" si="15"/>
         <v>25.365992716940887</v>
       </c>
       <c r="AD80">
-        <f>ROW(A80)</f>
+        <f t="shared" si="11"/>
         <v>80</v>
+      </c>
+      <c r="AE80" s="1">
+        <f t="shared" si="12"/>
+        <v>126.82996358470444</v>
       </c>
     </row>
     <row r="81" spans="1:33">
@@ -3755,24 +4104,28 @@
         <v>47</v>
       </c>
       <c r="Z81">
-        <f>SUM(B81:P81)</f>
+        <f t="shared" si="14"/>
         <v>47</v>
       </c>
       <c r="AA81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>9.36516159885227E-4</v>
       </c>
-      <c r="AB81" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB81" s="2">
+        <f t="shared" si="10"/>
         <v>9.3651615988522696</v>
       </c>
-      <c r="AC81" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC81" s="2">
+        <f t="shared" si="15"/>
         <v>97.151527566580143</v>
       </c>
       <c r="AD81">
-        <f>ROW(A81)</f>
+        <f t="shared" si="11"/>
         <v>81</v>
+      </c>
+      <c r="AE81" s="1">
+        <f t="shared" si="12"/>
+        <v>485.75763783290074</v>
       </c>
     </row>
     <row r="82" spans="1:33">
@@ -3783,24 +4136,28 @@
         <v>73</v>
       </c>
       <c r="Z82">
-        <f>SUM(B82:P82)</f>
+        <f t="shared" si="14"/>
         <v>73</v>
       </c>
       <c r="AA82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.4545889291834376E-3</v>
       </c>
-      <c r="AB82" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB82" s="2">
+        <f t="shared" si="10"/>
         <v>14.545889291834376</v>
       </c>
-      <c r="AC82" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC82" s="2">
+        <f t="shared" si="15"/>
         <v>116.27402778505397</v>
       </c>
       <c r="AD82">
-        <f>ROW(A82)</f>
+        <f t="shared" si="11"/>
         <v>82</v>
+      </c>
+      <c r="AE82" s="1">
+        <f t="shared" si="12"/>
+        <v>581.37013892526988</v>
       </c>
     </row>
     <row r="83" spans="1:33">
@@ -3832,24 +4189,28 @@
         <v>3</v>
       </c>
       <c r="Z83">
-        <f>SUM(B83:P83)</f>
+        <f t="shared" si="14"/>
         <v>241</v>
       </c>
       <c r="AA83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>4.8021360538795677E-3</v>
       </c>
-      <c r="AB83" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB83" s="2">
+        <f t="shared" si="10"/>
         <v>48.021360538795676</v>
       </c>
-      <c r="AC83" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC83" s="2">
+        <f t="shared" si="15"/>
         <v>168.14344603049523</v>
       </c>
       <c r="AD83">
-        <f>ROW(A83)</f>
+        <f t="shared" si="11"/>
         <v>83</v>
+      </c>
+      <c r="AE83" s="1">
+        <f t="shared" si="12"/>
+        <v>840.71723015247608</v>
       </c>
     </row>
     <row r="84" spans="1:33">
@@ -3860,24 +4221,28 @@
         <v>178</v>
       </c>
       <c r="Z84">
-        <f>SUM(B84:P84)</f>
+        <f t="shared" si="14"/>
         <v>178</v>
       </c>
       <c r="AA84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.546805882118519E-3</v>
       </c>
-      <c r="AB84" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB84" s="2">
+        <f t="shared" si="10"/>
         <v>35.468058821185188</v>
       </c>
-      <c r="AC84" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC84" s="2">
+        <f t="shared" si="15"/>
         <v>154.98374200389779</v>
       </c>
       <c r="AD84">
-        <f>ROW(A84)</f>
+        <f t="shared" si="11"/>
         <v>84</v>
+      </c>
+      <c r="AE84" s="1">
+        <f t="shared" si="12"/>
+        <v>774.91871001948891</v>
       </c>
     </row>
     <row r="85" spans="1:33">
@@ -3888,24 +4253,28 @@
         <v>17</v>
       </c>
       <c r="Z85">
-        <f>SUM(B85:P85)</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="AA85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.3873988761806082E-4</v>
       </c>
-      <c r="AB85" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB85" s="2">
+        <f t="shared" si="10"/>
         <v>3.3873988761806082</v>
       </c>
-      <c r="AC85" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC85" s="2">
+        <f t="shared" si="15"/>
         <v>52.986633910835792</v>
       </c>
       <c r="AD85">
-        <f>ROW(A85)</f>
+        <f t="shared" si="11"/>
         <v>85</v>
+      </c>
+      <c r="AE85" s="1">
+        <f t="shared" si="12"/>
+        <v>264.93316955417896</v>
       </c>
     </row>
     <row r="86" spans="1:33">
@@ -3919,24 +4288,28 @@
         <v>89</v>
       </c>
       <c r="Z86">
-        <f>SUM(B86:P86)</f>
+        <f t="shared" si="14"/>
         <v>99</v>
       </c>
       <c r="AA86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.9726616984816481E-3</v>
       </c>
-      <c r="AB86" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB86" s="2">
+        <f t="shared" si="10"/>
         <v>19.726616984816481</v>
       </c>
-      <c r="AC86" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC86" s="2">
+        <f t="shared" si="15"/>
         <v>129.50526123276339</v>
       </c>
       <c r="AD86">
-        <f>ROW(A86)</f>
+        <f t="shared" si="11"/>
         <v>86</v>
+      </c>
+      <c r="AE86" s="1">
+        <f t="shared" si="12"/>
+        <v>647.52630616381691</v>
       </c>
       <c r="AG86">
         <v>45</v>
@@ -3959,24 +4332,28 @@
         <v>54</v>
       </c>
       <c r="Z87">
-        <f>SUM(B87:P87)</f>
+        <f t="shared" si="14"/>
         <v>196</v>
       </c>
       <c r="AA87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.9054716454788186E-3</v>
       </c>
-      <c r="AB87" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB87" s="2">
+        <f t="shared" si="10"/>
         <v>39.054716454788185</v>
       </c>
-      <c r="AC87" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC87" s="2">
+        <f t="shared" si="15"/>
         <v>159.16734890865598</v>
       </c>
       <c r="AD87">
-        <f>ROW(A87)</f>
+        <f t="shared" si="11"/>
         <v>87</v>
+      </c>
+      <c r="AE87" s="1">
+        <f t="shared" si="12"/>
+        <v>795.83674454327991</v>
       </c>
       <c r="AG87">
         <v>42</v>
@@ -3990,24 +4367,28 @@
         <v>6</v>
       </c>
       <c r="Z88">
-        <f>SUM(B88:P88)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AA88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.1955525445343323E-4</v>
       </c>
-      <c r="AB88" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB88" s="2">
+        <f t="shared" si="10"/>
         <v>1.1955525445343322</v>
       </c>
-      <c r="AC88" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC88" s="2">
+        <f t="shared" si="15"/>
         <v>7.7568668113727659</v>
       </c>
       <c r="AD88">
-        <f>ROW(A88)</f>
+        <f t="shared" si="11"/>
         <v>88</v>
+      </c>
+      <c r="AE88" s="1">
+        <f t="shared" si="12"/>
+        <v>38.784334056863827</v>
       </c>
     </row>
     <row r="89" spans="1:33">
@@ -4018,24 +4399,28 @@
         <v>27</v>
       </c>
       <c r="Z89">
-        <f>SUM(B89:P89)</f>
+        <f t="shared" si="14"/>
         <v>27</v>
       </c>
       <c r="AA89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>5.3799864504044947E-4</v>
       </c>
-      <c r="AB89" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB89" s="2">
+        <f t="shared" si="10"/>
         <v>5.3799864504044947</v>
       </c>
-      <c r="AC89" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC89" s="2">
+        <f t="shared" si="15"/>
         <v>73.078118188907126</v>
       </c>
       <c r="AD89">
-        <f>ROW(A89)</f>
+        <f t="shared" si="11"/>
         <v>89</v>
+      </c>
+      <c r="AE89" s="1">
+        <f t="shared" si="12"/>
+        <v>365.39059094453563</v>
       </c>
       <c r="AG89">
         <v>29</v>
@@ -4049,24 +4434,28 @@
         <v>74</v>
       </c>
       <c r="Z90">
-        <f>SUM(B90:P90)</f>
+        <f t="shared" si="14"/>
         <v>74</v>
       </c>
       <c r="AA90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.4745148049256766E-3</v>
       </c>
-      <c r="AB90" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB90" s="2">
+        <f t="shared" si="10"/>
         <v>14.745148049256766</v>
       </c>
-      <c r="AC90" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC90" s="2">
+        <f t="shared" si="15"/>
         <v>116.86491374610601</v>
       </c>
       <c r="AD90">
-        <f>ROW(A90)</f>
+        <f t="shared" si="11"/>
         <v>90</v>
+      </c>
+      <c r="AE90" s="1">
+        <f t="shared" si="12"/>
+        <v>584.32456873053002</v>
       </c>
       <c r="AG90">
         <v>10</v>
@@ -4086,24 +4475,28 @@
         <v>9</v>
       </c>
       <c r="Z91">
-        <f>SUM(B91:P91)</f>
+        <f t="shared" si="14"/>
         <v>44</v>
       </c>
       <c r="AA91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>8.7673853265851035E-4</v>
       </c>
-      <c r="AB91" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB91" s="2">
+        <f t="shared" si="10"/>
         <v>8.7673853265851029</v>
       </c>
-      <c r="AC91" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC91" s="2">
+        <f t="shared" si="15"/>
         <v>94.287009421627133</v>
       </c>
       <c r="AD91">
-        <f>ROW(A91)</f>
+        <f t="shared" si="11"/>
         <v>91</v>
+      </c>
+      <c r="AE91" s="1">
+        <f t="shared" si="12"/>
+        <v>471.43504710813568</v>
       </c>
     </row>
     <row r="92" spans="1:33">
@@ -4114,24 +4507,28 @@
         <v>11</v>
       </c>
       <c r="Z92">
-        <f>SUM(B92:P92)</f>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="AA92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2.1918463316462759E-4</v>
       </c>
-      <c r="AB92" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB92" s="2">
+        <f t="shared" si="10"/>
         <v>2.1918463316462757</v>
       </c>
-      <c r="AC92" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC92" s="2">
+        <f t="shared" si="15"/>
         <v>34.081010288830903</v>
       </c>
       <c r="AD92">
-        <f>ROW(A92)</f>
+        <f t="shared" si="11"/>
         <v>92</v>
+      </c>
+      <c r="AE92" s="1">
+        <f t="shared" si="12"/>
+        <v>170.40505144415451</v>
       </c>
       <c r="AG92">
         <v>9</v>
@@ -4145,24 +4542,28 @@
         <v>14</v>
       </c>
       <c r="Z93">
-        <f>SUM(B93:P93)</f>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="AA93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2.7896226039134418E-4</v>
       </c>
-      <c r="AB93" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB93" s="2">
+        <f t="shared" si="10"/>
         <v>2.789622603913442</v>
       </c>
-      <c r="AC93" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC93" s="2">
+        <f t="shared" si="15"/>
         <v>44.554545340832199</v>
       </c>
       <c r="AD93">
-        <f>ROW(A93)</f>
+        <f t="shared" si="11"/>
         <v>93</v>
+      </c>
+      <c r="AE93" s="1">
+        <f t="shared" si="12"/>
+        <v>222.77272670416099</v>
       </c>
     </row>
     <row r="94" spans="1:33">
@@ -4173,24 +4574,28 @@
         <v>13</v>
       </c>
       <c r="Z94">
-        <f>SUM(B94:P94)</f>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="AA94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2.5903638464910535E-4</v>
       </c>
-      <c r="AB94" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB94" s="2">
+        <f t="shared" si="10"/>
         <v>2.5903638464910537</v>
       </c>
-      <c r="AC94" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC94" s="2">
+        <f t="shared" si="15"/>
         <v>41.336077003692083</v>
       </c>
       <c r="AD94">
-        <f>ROW(A94)</f>
+        <f t="shared" si="11"/>
         <v>94</v>
+      </c>
+      <c r="AE94" s="1">
+        <f t="shared" si="12"/>
+        <v>206.68038501846041</v>
       </c>
     </row>
     <row r="95" spans="1:33">
@@ -4201,24 +4606,28 @@
         <v>34</v>
       </c>
       <c r="Z95">
-        <f>SUM(B95:P95)</f>
+        <f t="shared" si="14"/>
         <v>34</v>
       </c>
       <c r="AA95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>6.7747977523612165E-4</v>
       </c>
-      <c r="AB95" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB95" s="2">
+        <f t="shared" si="10"/>
         <v>6.7747977523612164</v>
       </c>
-      <c r="AC95" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC95" s="2">
+        <f t="shared" si="15"/>
         <v>83.089633477233917</v>
       </c>
       <c r="AD95">
-        <f>ROW(A95)</f>
+        <f t="shared" si="11"/>
         <v>95</v>
+      </c>
+      <c r="AE95" s="1">
+        <f t="shared" si="12"/>
+        <v>415.44816738616959</v>
       </c>
     </row>
     <row r="96" spans="1:33">
@@ -4229,24 +4638,28 @@
         <v>4</v>
       </c>
       <c r="Z96">
-        <f>SUM(B96:P96)</f>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="AA96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>7.9703502968955485E-5</v>
       </c>
-      <c r="AB96" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB96" s="2">
+        <f t="shared" si="10"/>
         <v>0.79703502968955486</v>
       </c>
-      <c r="AC96" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC96" s="2">
+        <f t="shared" si="15"/>
         <v>-9.8522590941953556</v>
       </c>
       <c r="AD96">
-        <f>ROW(A96)</f>
+        <f t="shared" si="11"/>
         <v>96</v>
+      </c>
+      <c r="AE96" s="1">
+        <f t="shared" si="12"/>
+        <v>-49.261295470976776</v>
       </c>
       <c r="AG96">
         <v>7</v>
@@ -4263,24 +4676,28 @@
         <v>97</v>
       </c>
       <c r="Z97">
-        <f>SUM(B97:P97)</f>
+        <f t="shared" si="14"/>
         <v>433</v>
       </c>
       <c r="AA97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>8.6279041963894312E-3</v>
       </c>
-      <c r="AB97" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB97" s="2">
+        <f t="shared" si="10"/>
         <v>86.279041963894315</v>
       </c>
-      <c r="AC97" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC97" s="2">
+        <f t="shared" si="15"/>
         <v>193.59053140834493</v>
       </c>
       <c r="AD97">
-        <f>ROW(A97)</f>
+        <f t="shared" ref="AD97:AD122" si="16">ROW(A97)</f>
         <v>97</v>
+      </c>
+      <c r="AE97" s="1">
+        <f t="shared" si="12"/>
+        <v>967.95265704172471</v>
       </c>
       <c r="AG97">
         <v>11</v>
@@ -4294,24 +4711,28 @@
         <v>18</v>
       </c>
       <c r="Z98">
-        <f>SUM(B98:P98)</f>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="AA98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.586657633602997E-4</v>
       </c>
-      <c r="AB98" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB98" s="2">
+        <f t="shared" si="10"/>
         <v>3.5866576336029969</v>
       </c>
-      <c r="AC98" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC98" s="2">
+        <f t="shared" si="15"/>
         <v>55.468992283339006</v>
       </c>
       <c r="AD98">
-        <f>ROW(A98)</f>
+        <f t="shared" si="16"/>
         <v>98</v>
+      </c>
+      <c r="AE98" s="1">
+        <f t="shared" si="12"/>
+        <v>277.34496141669501</v>
       </c>
     </row>
     <row r="99" spans="1:33">
@@ -4322,24 +4743,28 @@
         <v>5</v>
       </c>
       <c r="Z99">
-        <f>SUM(B99:P99)</f>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="AA99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>9.9629378711194353E-5</v>
       </c>
-      <c r="AB99" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB99" s="2">
+        <f t="shared" si="10"/>
         <v>0.9962937871119435</v>
       </c>
-      <c r="AC99" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC99" s="2">
+        <f t="shared" si="15"/>
         <v>-0.16125779338971788</v>
       </c>
       <c r="AD99">
-        <f>ROW(A99)</f>
+        <f t="shared" si="16"/>
         <v>99</v>
+      </c>
+      <c r="AE99" s="1">
+        <f t="shared" si="12"/>
+        <v>-0.80628896694858943</v>
       </c>
     </row>
     <row r="100" spans="1:33">
@@ -4353,24 +4778,28 @@
         <v>4</v>
       </c>
       <c r="Z100">
-        <f>SUM(B100:P100)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AA100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.1955525445343323E-4</v>
       </c>
-      <c r="AB100" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB100" s="2">
+        <f t="shared" si="10"/>
         <v>1.1955525445343322</v>
       </c>
-      <c r="AC100" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC100" s="2">
+        <f t="shared" si="15"/>
         <v>7.7568668113727659</v>
       </c>
       <c r="AD100">
-        <f>ROW(A100)</f>
+        <f t="shared" si="16"/>
         <v>100</v>
+      </c>
+      <c r="AE100" s="1">
+        <f t="shared" si="12"/>
+        <v>38.784334056863827</v>
       </c>
     </row>
     <row r="101" spans="1:33">
@@ -4381,24 +4810,28 @@
         <v>8</v>
       </c>
       <c r="Z101">
-        <f>SUM(B101:P101)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="AA101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.5940700593791097E-4</v>
       </c>
-      <c r="AB101" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB101" s="2">
+        <f t="shared" si="10"/>
         <v>1.5940700593791097</v>
       </c>
-      <c r="AC101" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC101" s="2">
+        <f t="shared" si="15"/>
         <v>20.250740472202761</v>
       </c>
       <c r="AD101">
-        <f>ROW(A101)</f>
+        <f t="shared" si="16"/>
         <v>101</v>
+      </c>
+      <c r="AE101" s="1">
+        <f t="shared" si="12"/>
+        <v>101.25370236101381</v>
       </c>
     </row>
     <row r="102" spans="1:33">
@@ -4409,24 +4842,28 @@
         <v>398</v>
       </c>
       <c r="Z102">
-        <f>SUM(B102:P102)</f>
+        <f t="shared" si="14"/>
         <v>398</v>
       </c>
       <c r="AA102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>7.9304985454110716E-3</v>
       </c>
-      <c r="AB102" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB102" s="2">
+        <f t="shared" si="10"/>
         <v>79.304985454110721</v>
       </c>
-      <c r="AC102" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC102" s="2">
+        <f t="shared" si="15"/>
         <v>189.93004898037717</v>
       </c>
       <c r="AD102">
-        <f>ROW(A102)</f>
+        <f t="shared" si="16"/>
         <v>102</v>
+      </c>
+      <c r="AE102" s="1">
+        <f t="shared" si="12"/>
+        <v>949.6502449018858</v>
       </c>
     </row>
     <row r="103" spans="1:33">
@@ -4440,24 +4877,28 @@
         <v>21</v>
       </c>
       <c r="Z103">
-        <f>SUM(B103:P103)</f>
+        <f t="shared" si="14"/>
         <v>52</v>
       </c>
       <c r="AA103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.0361455385964214E-3</v>
       </c>
-      <c r="AB103" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB103" s="2">
+        <f t="shared" si="10"/>
         <v>10.361455385964215</v>
       </c>
-      <c r="AC103" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC103" s="2">
+        <f t="shared" si="15"/>
         <v>101.54207613648833</v>
       </c>
       <c r="AD103">
-        <f>ROW(A103)</f>
+        <f t="shared" si="16"/>
         <v>103</v>
+      </c>
+      <c r="AE103" s="1">
+        <f t="shared" si="12"/>
+        <v>507.71038068244167</v>
       </c>
     </row>
     <row r="104" spans="1:33">
@@ -4468,24 +4909,28 @@
         <v>35</v>
       </c>
       <c r="Z104">
-        <f>SUM(B104:P104)</f>
+        <f t="shared" si="14"/>
         <v>35</v>
       </c>
       <c r="AA104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>6.9740565097836053E-4</v>
       </c>
-      <c r="AB104" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB104" s="2">
+        <f t="shared" si="10"/>
         <v>6.9740565097836056</v>
       </c>
-      <c r="AC104" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC104" s="2">
+        <f t="shared" si="15"/>
         <v>84.34854620803597</v>
       </c>
       <c r="AD104">
-        <f>ROW(A104)</f>
+        <f t="shared" si="16"/>
         <v>104</v>
+      </c>
+      <c r="AE104" s="1">
+        <f t="shared" si="12"/>
+        <v>421.74273104017982</v>
       </c>
     </row>
     <row r="105" spans="1:33">
@@ -4496,24 +4941,28 @@
         <v>29</v>
       </c>
       <c r="Z105">
-        <f>SUM(B105:P105)</f>
+        <f t="shared" si="14"/>
         <v>29</v>
       </c>
       <c r="AA105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>5.7785039652492724E-4</v>
       </c>
-      <c r="AB105" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB105" s="2">
+        <f t="shared" si="10"/>
         <v>5.7785039652492722</v>
       </c>
-      <c r="AC105" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC105" s="2">
+        <f t="shared" si="15"/>
         <v>76.181541562904016</v>
       </c>
       <c r="AD105">
-        <f>ROW(A105)</f>
+        <f t="shared" si="16"/>
         <v>105</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="12"/>
+        <v>380.90770781452011</v>
       </c>
     </row>
     <row r="106" spans="1:33">
@@ -4524,24 +4973,28 @@
         <v>322</v>
       </c>
       <c r="Z106">
-        <f>SUM(B106:P106)</f>
+        <f t="shared" si="14"/>
         <v>322</v>
       </c>
       <c r="AA106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>6.416131989000917E-3</v>
       </c>
-      <c r="AB106" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB106" s="2">
+        <f t="shared" si="10"/>
         <v>64.161319890009167</v>
       </c>
-      <c r="AC106" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC106" s="2">
+        <f t="shared" si="15"/>
         <v>180.7273289425915</v>
       </c>
       <c r="AD106">
-        <f>ROW(A106)</f>
+        <f t="shared" si="16"/>
         <v>106</v>
+      </c>
+      <c r="AE106" s="1">
+        <f t="shared" si="12"/>
+        <v>903.63664471295749</v>
       </c>
     </row>
     <row r="107" spans="1:33">
@@ -4582,24 +5035,28 @@
         <v>78</v>
       </c>
       <c r="Z107">
-        <f>SUM(B107:P107)</f>
+        <f t="shared" si="14"/>
         <v>381</v>
       </c>
       <c r="AA107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>7.5917586577930098E-3</v>
       </c>
-      <c r="AB107" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB107" s="2">
+        <f t="shared" si="10"/>
         <v>75.917586577930095</v>
       </c>
-      <c r="AC107" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC107" s="2">
+        <f t="shared" si="15"/>
         <v>188.03423934057034</v>
       </c>
       <c r="AD107">
-        <f>ROW(A107)</f>
+        <f t="shared" si="16"/>
         <v>107</v>
+      </c>
+      <c r="AE107" s="1">
+        <f t="shared" si="12"/>
+        <v>940.17119670285172</v>
       </c>
     </row>
     <row r="108" spans="1:33">
@@ -4610,24 +5067,28 @@
         <v>193</v>
       </c>
       <c r="Z108">
-        <f>SUM(B108:P108)</f>
+        <f t="shared" si="14"/>
         <v>193</v>
       </c>
       <c r="AA108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.8456940182521023E-3</v>
       </c>
-      <c r="AB108" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB108" s="2">
+        <f t="shared" si="10"/>
         <v>38.456940182521024</v>
       </c>
-      <c r="AC108" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC108" s="2">
+        <f t="shared" si="15"/>
         <v>158.49747267378578</v>
       </c>
       <c r="AD108">
-        <f>ROW(A108)</f>
+        <f t="shared" si="16"/>
         <v>108</v>
+      </c>
+      <c r="AE108" s="1">
+        <f t="shared" si="12"/>
+        <v>792.48736336892887</v>
       </c>
     </row>
     <row r="109" spans="1:33">
@@ -4638,24 +5099,28 @@
         <v>6</v>
       </c>
       <c r="Z109">
-        <f>SUM(B109:P109)</f>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
       <c r="AA109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.1955525445343323E-4</v>
       </c>
-      <c r="AB109" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB109" s="2">
+        <f t="shared" si="10"/>
         <v>1.1955525445343322</v>
       </c>
-      <c r="AC109" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC109" s="2">
+        <f t="shared" si="15"/>
         <v>7.7568668113727659</v>
       </c>
       <c r="AD109">
-        <f>ROW(A109)</f>
+        <f t="shared" si="16"/>
         <v>109</v>
+      </c>
+      <c r="AE109" s="1">
+        <f t="shared" si="12"/>
+        <v>38.784334056863827</v>
       </c>
     </row>
     <row r="110" spans="1:33">
@@ -4666,24 +5131,28 @@
         <v>50</v>
       </c>
       <c r="Z110">
-        <f>SUM(B110:P110)</f>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="AA110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>9.9629378711194364E-4</v>
       </c>
-      <c r="AB110" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB110" s="2">
+        <f t="shared" si="10"/>
         <v>9.9629378711194363</v>
       </c>
-      <c r="AC110" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC110" s="2">
+        <f t="shared" si="15"/>
         <v>99.838742206610277</v>
       </c>
       <c r="AD110">
-        <f>ROW(A110)</f>
+        <f t="shared" si="16"/>
         <v>110</v>
+      </c>
+      <c r="AE110" s="1">
+        <f t="shared" si="12"/>
+        <v>499.19371103305139</v>
       </c>
       <c r="AG110">
         <v>10</v>
@@ -4697,24 +5166,28 @@
         <v>13</v>
       </c>
       <c r="Z111">
-        <f>SUM(B111:P111)</f>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="AA111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2.5903638464910535E-4</v>
       </c>
-      <c r="AB111" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB111" s="2">
+        <f t="shared" si="10"/>
         <v>2.5903638464910537</v>
       </c>
-      <c r="AC111" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC111" s="2">
+        <f t="shared" si="15"/>
         <v>41.336077003692083</v>
       </c>
       <c r="AD111">
-        <f>ROW(A111)</f>
+        <f t="shared" si="16"/>
         <v>111</v>
+      </c>
+      <c r="AE111" s="1">
+        <f t="shared" si="12"/>
+        <v>206.68038501846041</v>
       </c>
     </row>
     <row r="112" spans="1:33">
@@ -4725,24 +5198,28 @@
         <v>189</v>
       </c>
       <c r="Z112">
-        <f>SUM(B112:P112)</f>
+        <f t="shared" si="14"/>
         <v>189</v>
       </c>
       <c r="AA112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.7659905152831468E-3</v>
       </c>
-      <c r="AB112" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB112" s="2">
+        <f t="shared" si="10"/>
         <v>37.65990515283147</v>
       </c>
-      <c r="AC112" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC112" s="2">
+        <f t="shared" si="15"/>
         <v>157.58792219033279</v>
       </c>
       <c r="AD112">
-        <f>ROW(A112)</f>
+        <f t="shared" si="16"/>
         <v>112</v>
+      </c>
+      <c r="AE112" s="1">
+        <f t="shared" si="12"/>
+        <v>787.93961095166401</v>
       </c>
     </row>
     <row r="113" spans="1:33">
@@ -4756,24 +5233,28 @@
         <v>53</v>
       </c>
       <c r="Z113">
-        <f>SUM(B113:P113)</f>
+        <f t="shared" si="14"/>
         <v>64</v>
       </c>
       <c r="AA113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.2752560475032878E-3</v>
       </c>
-      <c r="AB113" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB113" s="2">
+        <f t="shared" si="10"/>
         <v>12.752560475032878</v>
       </c>
-      <c r="AC113" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC113" s="2">
+        <f t="shared" si="15"/>
         <v>110.55973917139713</v>
       </c>
       <c r="AD113">
-        <f>ROW(A113)</f>
+        <f t="shared" si="16"/>
         <v>113</v>
+      </c>
+      <c r="AE113" s="1">
+        <f t="shared" si="12"/>
+        <v>552.79869585698566</v>
       </c>
     </row>
     <row r="114" spans="1:33">
@@ -4784,24 +5265,28 @@
         <v>165</v>
       </c>
       <c r="Z114">
-        <f>SUM(B114:P114)</f>
+        <f t="shared" si="14"/>
         <v>165</v>
       </c>
       <c r="AA114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>3.2877694974694136E-3</v>
       </c>
-      <c r="AB114" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB114" s="2">
+        <f t="shared" si="10"/>
         <v>32.877694974694137</v>
       </c>
-      <c r="AC114" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC114" s="2">
+        <f t="shared" si="15"/>
         <v>151.69013619439903</v>
       </c>
       <c r="AD114">
-        <f>ROW(A114)</f>
+        <f t="shared" si="16"/>
         <v>114</v>
+      </c>
+      <c r="AE114" s="1">
+        <f t="shared" si="12"/>
+        <v>758.4506809719951</v>
       </c>
     </row>
     <row r="115" spans="1:33">
@@ -4821,26 +5306,31 @@
         <v>339</v>
       </c>
       <c r="Z115">
-        <f>SUM(B115:P115)</f>
+        <f t="shared" si="14"/>
         <v>1309</v>
       </c>
       <c r="AA115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2.6082971346590683E-2</v>
       </c>
-      <c r="AB115" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB115" s="2">
+        <f t="shared" si="10"/>
         <v>260.82971346590682</v>
       </c>
-      <c r="AC115" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC115" s="2">
+        <f t="shared" si="15"/>
         <v>241.63570642808395</v>
       </c>
       <c r="AD115">
-        <f>ROW(A115)</f>
+        <f t="shared" si="16"/>
         <v>115</v>
       </c>
-      <c r="AG115">
+      <c r="AE115" s="1">
+        <f t="shared" si="12"/>
+        <v>1208.1785321404197</v>
+      </c>
+      <c r="AF115" s="1"/>
+      <c r="AG115" s="1">
         <v>85</v>
       </c>
     </row>
@@ -4852,27 +5342,28 @@
         <v>10</v>
       </c>
       <c r="Z116">
-        <f>SUM(B116:P116)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="AA116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.9925875742238871E-4</v>
       </c>
-      <c r="AB116" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB116" s="2">
+        <f t="shared" si="10"/>
         <v>1.992587574223887</v>
       </c>
-      <c r="AC116" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC116" s="2">
+        <f t="shared" si="15"/>
         <v>29.941741773008395</v>
       </c>
       <c r="AD116">
-        <f>ROW(A116)</f>
+        <f t="shared" si="16"/>
         <v>116</v>
       </c>
-      <c r="AG116">
-        <v>27</v>
+      <c r="AE116" s="1">
+        <f t="shared" si="12"/>
+        <v>149.70870886504198</v>
       </c>
     </row>
     <row r="117" spans="1:33">
@@ -4883,24 +5374,28 @@
         <v>8</v>
       </c>
       <c r="Z117">
-        <f>SUM(B117:P117)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="AA117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.5940700593791097E-4</v>
       </c>
-      <c r="AB117" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB117" s="2">
+        <f t="shared" si="10"/>
         <v>1.5940700593791097</v>
       </c>
-      <c r="AC117" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC117" s="2">
+        <f t="shared" si="15"/>
         <v>20.250740472202761</v>
       </c>
       <c r="AD117">
-        <f>ROW(A117)</f>
+        <f t="shared" si="16"/>
         <v>117</v>
+      </c>
+      <c r="AE117" s="1">
+        <f t="shared" si="12"/>
+        <v>101.25370236101381</v>
       </c>
       <c r="AG117">
         <v>12</v>
@@ -4914,24 +5409,28 @@
         <v>11</v>
       </c>
       <c r="Z118">
-        <f>SUM(B118:P118)</f>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="AA118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2.1918463316462759E-4</v>
       </c>
-      <c r="AB118" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB118" s="2">
+        <f t="shared" si="10"/>
         <v>2.1918463316462757</v>
       </c>
-      <c r="AC118" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC118" s="2">
+        <f t="shared" si="15"/>
         <v>34.081010288830903</v>
       </c>
       <c r="AD118">
-        <f>ROW(A118)</f>
+        <f t="shared" si="16"/>
         <v>118</v>
+      </c>
+      <c r="AE118" s="1">
+        <f t="shared" si="12"/>
+        <v>170.40505144415451</v>
       </c>
     </row>
     <row r="119" spans="1:33">
@@ -4942,24 +5441,28 @@
         <v>206</v>
       </c>
       <c r="Z119">
-        <f>SUM(B119:P119)</f>
+        <f t="shared" si="14"/>
         <v>206</v>
       </c>
       <c r="AA119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>4.1047304029012072E-3</v>
       </c>
-      <c r="AB119" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB119" s="2">
+        <f t="shared" si="10"/>
         <v>41.047304029012075</v>
       </c>
-      <c r="AC119" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC119" s="2">
+        <f t="shared" si="15"/>
         <v>161.3284638099237</v>
       </c>
       <c r="AD119">
-        <f>ROW(A119)</f>
+        <f t="shared" si="16"/>
         <v>119</v>
+      </c>
+      <c r="AE119" s="1">
+        <f t="shared" si="12"/>
+        <v>806.64231904961855</v>
       </c>
     </row>
     <row r="120" spans="1:33">
@@ -4970,24 +5473,28 @@
         <v>83</v>
       </c>
       <c r="Z120">
-        <f>SUM(B120:P120)</f>
+        <f t="shared" si="14"/>
         <v>83</v>
       </c>
       <c r="AA120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>1.6538476866058264E-3</v>
       </c>
-      <c r="AB120" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB120" s="2">
+        <f t="shared" si="10"/>
         <v>16.538476866058264</v>
       </c>
-      <c r="AC120" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC120" s="2">
+        <f t="shared" si="15"/>
         <v>121.84955101061578</v>
       </c>
       <c r="AD120">
-        <f>ROW(A120)</f>
+        <f t="shared" si="16"/>
         <v>120</v>
+      </c>
+      <c r="AE120" s="1">
+        <f t="shared" si="12"/>
+        <v>609.24775505307889</v>
       </c>
     </row>
     <row r="121" spans="1:33">
@@ -4998,24 +5505,28 @@
         <v>25</v>
       </c>
       <c r="Z121">
-        <f>SUM(B121:P121)</f>
+        <f t="shared" si="14"/>
         <v>25</v>
       </c>
       <c r="AA121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>4.9814689355597182E-4</v>
       </c>
-      <c r="AB121" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB121" s="2">
+        <f t="shared" si="10"/>
         <v>4.9814689355597181</v>
       </c>
-      <c r="AC121" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC121" s="2">
+        <f t="shared" si="15"/>
         <v>69.735742640212166</v>
       </c>
       <c r="AD121">
-        <f>ROW(A121)</f>
+        <f t="shared" si="16"/>
         <v>121</v>
+      </c>
+      <c r="AE121" s="1">
+        <f t="shared" si="12"/>
+        <v>348.67871320106082</v>
       </c>
       <c r="AG121">
         <v>10</v>
@@ -5029,32 +5540,38 @@
         <v>481</v>
       </c>
       <c r="Z122">
-        <f>SUM(B122:P122)</f>
+        <f t="shared" si="14"/>
         <v>481</v>
       </c>
       <c r="AA122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>9.5843462320168975E-3</v>
       </c>
-      <c r="AB122" s="1">
-        <f t="shared" si="3"/>
+      <c r="AB122" s="2">
+        <f t="shared" si="10"/>
         <v>95.843462320168982</v>
       </c>
-      <c r="AC122" s="1">
-        <f t="shared" si="5"/>
+      <c r="AC122" s="2">
+        <f t="shared" si="15"/>
         <v>198.15624941039155</v>
       </c>
       <c r="AD122">
-        <f>ROW(A122)</f>
+        <f t="shared" si="16"/>
         <v>122</v>
       </c>
-      <c r="AG122">
+      <c r="AE122" s="1">
+        <f t="shared" si="12"/>
+        <v>990.78124705195773</v>
+      </c>
+      <c r="AF122" s="1"/>
+      <c r="AG122" s="1">
         <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:33">
-      <c r="AB123" s="1"/>
-      <c r="AC123" s="1"/>
+      <c r="AB123" s="2"/>
+      <c r="AC123" s="2"/>
+      <c r="AE123" s="1"/>
     </row>
     <row r="124" spans="1:33">
       <c r="A124" t="s">
@@ -5063,11 +5580,14 @@
       <c r="Z124">
         <v>50186</v>
       </c>
-      <c r="AB124" s="1" t="s">
+      <c r="AB124" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AC124" s="1" t="s">
+      <c r="AC124" s="2" t="s">
         <v>174</v>
+      </c>
+      <c r="AE124" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="AG124" t="s">
         <v>176</v>

--- a/workshop/assets/NightwoodData.xlsx
+++ b/workshop/assets/NightwoodData.xlsx
@@ -601,7 +601,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -639,8 +639,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,6 +662,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -682,7 +694,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -742,13 +754,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="54" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="59"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="60">
+    <cellStyle name="Accent1" xfId="59" builtinId="29"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1146,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG124"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D100" workbookViewId="0">
-      <selection activeCell="AE122" sqref="AE122"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D102" workbookViewId="0">
+      <selection activeCell="AG110" sqref="AG110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1447,12 +1462,12 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AE7" s="1">
+      <c r="AE7" s="3">
         <f t="shared" si="4"/>
         <v>1107.9356831400046</v>
       </c>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1">
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3">
         <v>300</v>
       </c>
     </row>
@@ -3262,12 +3277,12 @@
         <f t="shared" si="8"/>
         <v>58</v>
       </c>
-      <c r="AE58" s="1">
+      <c r="AE58" s="3">
         <f t="shared" si="4"/>
         <v>490.32932755283559</v>
       </c>
-      <c r="AF58" s="1"/>
-      <c r="AG58" s="1">
+      <c r="AF58" s="3"/>
+      <c r="AG58" s="3">
         <v>260</v>
       </c>
     </row>
@@ -3587,12 +3602,12 @@
         <f t="shared" si="11"/>
         <v>67</v>
       </c>
-      <c r="AE67" s="1">
+      <c r="AE67" s="3">
         <f t="shared" si="12"/>
         <v>904.30997003059349</v>
       </c>
-      <c r="AF67" s="1"/>
-      <c r="AG67" s="1">
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3">
         <v>140</v>
       </c>
     </row>
@@ -5325,12 +5340,12 @@
         <f t="shared" si="16"/>
         <v>115</v>
       </c>
-      <c r="AE115" s="1">
+      <c r="AE115" s="3">
         <f t="shared" si="12"/>
         <v>1208.1785321404197</v>
       </c>
-      <c r="AF115" s="1"/>
-      <c r="AG115" s="1">
+      <c r="AF115" s="3"/>
+      <c r="AG115" s="3">
         <v>85</v>
       </c>
     </row>
@@ -5559,12 +5574,12 @@
         <f t="shared" si="16"/>
         <v>122</v>
       </c>
-      <c r="AE122" s="1">
+      <c r="AE122" s="3">
         <f t="shared" si="12"/>
         <v>990.78124705195773</v>
       </c>
-      <c r="AF122" s="1"/>
-      <c r="AG122" s="1">
+      <c r="AF122" s="3"/>
+      <c r="AG122" s="3">
         <v>266</v>
       </c>
     </row>
